--- a/data/MODELS_Evaluation.xlsx
+++ b/data/MODELS_Evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Data_Projects\MDS\master_thesis\fiscal-balance-forecast\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDB4F15-37E3-43B4-9240-65C1C59E214B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F5B688-C633-4195-8C5A-1FB6AB8476C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C3E01645-CC42-4FDD-B1C0-083E9BF408D4}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="172">
   <si>
     <t>RNN</t>
   </si>
@@ -305,129 +305,9 @@
     <t>pos_RMSE</t>
   </si>
   <si>
-    <t>3.89</t>
-  </si>
-  <si>
-    <t>91305.57</t>
-  </si>
-  <si>
-    <t>67093.27</t>
-  </si>
-  <si>
-    <t>3.20</t>
-  </si>
-  <si>
-    <t>77360.77</t>
-  </si>
-  <si>
-    <t>54604.33</t>
-  </si>
-  <si>
-    <t>4.19</t>
-  </si>
-  <si>
-    <t>42781.88</t>
-  </si>
-  <si>
-    <t>31356.09</t>
-  </si>
-  <si>
-    <t>9.02</t>
-  </si>
-  <si>
-    <t>29447.46</t>
-  </si>
-  <si>
-    <t>23956.68</t>
-  </si>
-  <si>
-    <t>29014.52</t>
-  </si>
-  <si>
-    <t>21801.35</t>
-  </si>
-  <si>
-    <t>1.50</t>
-  </si>
-  <si>
-    <t>53740.61</t>
-  </si>
-  <si>
-    <t>34865.58</t>
-  </si>
-  <si>
     <t>1.43</t>
   </si>
   <si>
-    <t>46643.57</t>
-  </si>
-  <si>
-    <t>31779.90</t>
-  </si>
-  <si>
-    <t>3.76</t>
-  </si>
-  <si>
-    <t>34057.10</t>
-  </si>
-  <si>
-    <t>24388.04</t>
-  </si>
-  <si>
-    <t>7.67</t>
-  </si>
-  <si>
-    <t>25254.68</t>
-  </si>
-  <si>
-    <t>20392.60</t>
-  </si>
-  <si>
-    <t>2.51</t>
-  </si>
-  <si>
-    <t>20618.52</t>
-  </si>
-  <si>
-    <t>17073.73</t>
-  </si>
-  <si>
-    <t>5.53</t>
-  </si>
-  <si>
-    <t>17026.59</t>
-  </si>
-  <si>
-    <t>89017.51</t>
-  </si>
-  <si>
-    <t>5.19</t>
-  </si>
-  <si>
-    <t>02291.62</t>
-  </si>
-  <si>
-    <t>80701.54</t>
-  </si>
-  <si>
-    <t>9.42</t>
-  </si>
-  <si>
-    <t>51606.25</t>
-  </si>
-  <si>
-    <t>42823.72</t>
-  </si>
-  <si>
-    <t>5.72</t>
-  </si>
-  <si>
-    <t>21128.99</t>
-  </si>
-  <si>
-    <t>16977.61</t>
-  </si>
-  <si>
     <t>1.88</t>
   </si>
   <si>
@@ -435,51 +315,6 @@
   </si>
   <si>
     <t>17379.59</t>
-  </si>
-  <si>
-    <t>1.25</t>
-  </si>
-  <si>
-    <t>45444.02</t>
-  </si>
-  <si>
-    <t>29830.12</t>
-  </si>
-  <si>
-    <t>1.40</t>
-  </si>
-  <si>
-    <t>38790.98</t>
-  </si>
-  <si>
-    <t>25875.91</t>
-  </si>
-  <si>
-    <t>3.83</t>
-  </si>
-  <si>
-    <t>34133.36</t>
-  </si>
-  <si>
-    <t>24351.65</t>
-  </si>
-  <si>
-    <t>9.33</t>
-  </si>
-  <si>
-    <t>25731.40</t>
-  </si>
-  <si>
-    <t>19325.20</t>
-  </si>
-  <si>
-    <t>2.72</t>
-  </si>
-  <si>
-    <t>21981.90</t>
-  </si>
-  <si>
-    <t>16931.31</t>
   </si>
   <si>
     <t>Lower Bound</t>
@@ -559,6 +394,180 @@
   </si>
   <si>
     <t>Model: SARIMAX., File: ../data/data_cleaned_RFE.csv, Outlier Threshold: 0.2 -&gt;, MAPE: 2.94, RMSE: 22734.24, MAE: 18157.11</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>90089.25</t>
+  </si>
+  <si>
+    <t>70023.61</t>
+  </si>
+  <si>
+    <t>3.25</t>
+  </si>
+  <si>
+    <t>77843.47</t>
+  </si>
+  <si>
+    <t>58207.18</t>
+  </si>
+  <si>
+    <t>4.53</t>
+  </si>
+  <si>
+    <t>45271.07</t>
+  </si>
+  <si>
+    <t>35030.28</t>
+  </si>
+  <si>
+    <t>28717.24</t>
+  </si>
+  <si>
+    <t>23046.59</t>
+  </si>
+  <si>
+    <t>3.15</t>
+  </si>
+  <si>
+    <t>27656.73</t>
+  </si>
+  <si>
+    <t>20848.04</t>
+  </si>
+  <si>
+    <t>50348.55</t>
+  </si>
+  <si>
+    <t>33085.53</t>
+  </si>
+  <si>
+    <t>1.32</t>
+  </si>
+  <si>
+    <t>45320.22</t>
+  </si>
+  <si>
+    <t>30772.38</t>
+  </si>
+  <si>
+    <t>4.85</t>
+  </si>
+  <si>
+    <t>34119.23</t>
+  </si>
+  <si>
+    <t>24432.60</t>
+  </si>
+  <si>
+    <t>4.82</t>
+  </si>
+  <si>
+    <t>21851.87</t>
+  </si>
+  <si>
+    <t>17226.13</t>
+  </si>
+  <si>
+    <t>3.07</t>
+  </si>
+  <si>
+    <t>23133.17</t>
+  </si>
+  <si>
+    <t>18731.05</t>
+  </si>
+  <si>
+    <t>3.04</t>
+  </si>
+  <si>
+    <t>90064.05</t>
+  </si>
+  <si>
+    <t>60194.47</t>
+  </si>
+  <si>
+    <t>2.87</t>
+  </si>
+  <si>
+    <t>79826.52</t>
+  </si>
+  <si>
+    <t>55230.30</t>
+  </si>
+  <si>
+    <t>6.96</t>
+  </si>
+  <si>
+    <t>42450.54</t>
+  </si>
+  <si>
+    <t>31055.29</t>
+  </si>
+  <si>
+    <t>6.25</t>
+  </si>
+  <si>
+    <t>22271.00</t>
+  </si>
+  <si>
+    <t>16769.87</t>
+  </si>
+  <si>
+    <t>1.70</t>
+  </si>
+  <si>
+    <t>22172.52</t>
+  </si>
+  <si>
+    <t>15651.17</t>
+  </si>
+  <si>
+    <t>1.13</t>
+  </si>
+  <si>
+    <t>49046.49</t>
+  </si>
+  <si>
+    <t>32049.16</t>
+  </si>
+  <si>
+    <t>1.09</t>
+  </si>
+  <si>
+    <t>44591.83</t>
+  </si>
+  <si>
+    <t>30166.87</t>
+  </si>
+  <si>
+    <t>4.79</t>
+  </si>
+  <si>
+    <t>34600.12</t>
+  </si>
+  <si>
+    <t>24184.66</t>
+  </si>
+  <si>
+    <t>7.09</t>
+  </si>
+  <si>
+    <t>23590.26</t>
+  </si>
+  <si>
+    <t>17444.67</t>
+  </si>
+  <si>
+    <t>2.94</t>
+  </si>
+  <si>
+    <t>22734.24</t>
+  </si>
+  <si>
+    <t>18157.11</t>
   </si>
 </sst>
 </file>
@@ -4935,8 +4944,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4962,12 +4971,12 @@
         <v>78</v>
       </c>
       <c r="C1" s="60" t="s">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="D1" s="61"/>
       <c r="E1" s="65"/>
       <c r="F1" s="60" t="s">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c r="G1" s="61"/>
       <c r="H1" s="65"/>
@@ -5071,13 +5080,13 @@
         <v>34045.0198727717</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="I3" s="18">
         <v>1.2503922000000001</v>
@@ -5107,7 +5116,7 @@
         <v>43228.89</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c r="T3" s="11">
         <f>SEARCH("RMSE:",S3,1)</f>
@@ -5153,13 +5162,13 @@
         <v>30807.03</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="I4" s="13">
         <v>1.2527347</v>
@@ -5189,7 +5198,7 @@
         <v>42295.43</v>
       </c>
       <c r="S4" s="11" t="s">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="W4" s="4" t="str">
         <f t="shared" ref="W4:W22" si="0">RIGHT(LEFT(S4,SEARCH("RMSE:",S4,1)-3),4)</f>
@@ -5219,13 +5228,13 @@
         <v>18193.53</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="I5" s="13">
         <v>5.3872309999999999</v>
@@ -5255,7 +5264,7 @@
         <v>27364.518</v>
       </c>
       <c r="S5" s="11" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="W5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -5284,14 +5293,14 @@
       <c r="E6" s="15">
         <v>16278</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>93</v>
+      <c r="F6" s="12">
+        <v>10.06</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="I6" s="13">
         <v>1.2080169000000001</v>
@@ -5321,7 +5330,7 @@
         <v>21297.418000000001</v>
       </c>
       <c r="S6" s="11" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="W6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -5351,13 +5360,13 @@
         <v>16010.54</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="I7" s="25">
         <v>1.1386377000000001</v>
@@ -5387,7 +5396,7 @@
         <v>19097.261999999999</v>
       </c>
       <c r="S7" s="11" t="s">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c r="W7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -5419,13 +5428,13 @@
         <v>0</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="I8" s="32">
         <v>1.5047504</v>
@@ -5455,7 +5464,7 @@
         <v>41928.559999999998</v>
       </c>
       <c r="S8" s="11" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="W8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -5485,13 +5494,13 @@
         <v>0</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="I9" s="14">
         <v>1.2297378000000001</v>
@@ -5521,7 +5530,7 @@
         <v>39486.425999999999</v>
       </c>
       <c r="S9" s="11" t="s">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="W9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -5551,13 +5560,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="I10" s="14">
         <v>11.221829</v>
@@ -5587,7 +5596,7 @@
         <v>32323.474999999999</v>
       </c>
       <c r="S10" s="11" t="s">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="W10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -5617,13 +5626,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="I11" s="14">
         <v>11.677142999999999</v>
@@ -5653,7 +5662,7 @@
         <v>24749.831999999999</v>
       </c>
       <c r="S11" s="11" t="s">
-        <v>157</v>
+        <v>102</v>
       </c>
       <c r="W11" s="4" t="str">
         <f t="shared" si="0"/>
@@ -5683,13 +5692,13 @@
         <v>0</v>
       </c>
       <c r="F12" s="43" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="G12" s="43" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="H12" s="43" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="I12" s="42">
         <v>2.1279154</v>
@@ -5719,7 +5728,7 @@
         <v>20842.898000000001</v>
       </c>
       <c r="S12" s="11" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="W12" s="4" t="str">
         <f t="shared" si="0"/>
@@ -5751,13 +5760,13 @@
         <v>0</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="I13" s="28">
         <v>1.1452293</v>
@@ -5787,7 +5796,7 @@
         <v>37868.413999999997</v>
       </c>
       <c r="S13" s="11" t="s">
-        <v>159</v>
+        <v>104</v>
       </c>
       <c r="W13" s="4" t="str">
         <f t="shared" si="0"/>
@@ -5817,13 +5826,13 @@
         <v>0</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="I14" s="14">
         <v>1.0494342000000001</v>
@@ -5853,7 +5862,7 @@
         <v>35612.805</v>
       </c>
       <c r="S14" s="11" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="W14" s="4" t="str">
         <f t="shared" si="0"/>
@@ -5883,13 +5892,13 @@
         <v>0</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="I15" s="14">
         <v>2.8799771999999999</v>
@@ -5919,7 +5928,7 @@
         <v>20804.95</v>
       </c>
       <c r="S15" s="11" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="W15" s="4" t="str">
         <f t="shared" si="0"/>
@@ -5949,13 +5958,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="I16" s="14">
         <v>2.6272669999999998</v>
@@ -5985,7 +5994,7 @@
         <v>19591.241999999998</v>
       </c>
       <c r="S16" s="11" t="s">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="W16" s="4" t="str">
         <f t="shared" si="0"/>
@@ -6015,13 +6024,13 @@
         <v>0</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="G17" s="46" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="H17" s="46" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="I17" s="45">
         <v>1.0896254999999999</v>
@@ -6051,7 +6060,7 @@
         <v>15323.695</v>
       </c>
       <c r="S17" s="11" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="W17" s="4" t="str">
         <f t="shared" si="0"/>
@@ -6083,13 +6092,13 @@
         <v>0</v>
       </c>
       <c r="F18" s="33" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="I18" s="32">
         <v>1.0293546</v>
@@ -6119,7 +6128,7 @@
         <v>35826.004000000001</v>
       </c>
       <c r="S18" s="11" t="s">
-        <v>164</v>
+        <v>109</v>
       </c>
       <c r="W18" s="4" t="str">
         <f t="shared" si="0"/>
@@ -6149,13 +6158,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="I19" s="14">
         <v>1.0866214999999999</v>
@@ -6185,7 +6194,7 @@
         <v>36292.660000000003</v>
       </c>
       <c r="S19" s="11" t="s">
-        <v>165</v>
+        <v>110</v>
       </c>
       <c r="W19" s="4" t="str">
         <f t="shared" si="0"/>
@@ -6215,13 +6224,13 @@
         <v>0</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="I20" s="14">
         <v>2.5609815</v>
@@ -6251,7 +6260,7 @@
         <v>28626.437999999998</v>
       </c>
       <c r="S20" s="11" t="s">
-        <v>166</v>
+        <v>111</v>
       </c>
       <c r="W20" s="4" t="str">
         <f t="shared" si="0"/>
@@ -6281,13 +6290,13 @@
         <v>0</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="I21" s="14">
         <v>2.6683238</v>
@@ -6317,7 +6326,7 @@
         <v>27361.634999999998</v>
       </c>
       <c r="S21" s="11" t="s">
-        <v>167</v>
+        <v>112</v>
       </c>
       <c r="W21" s="4" t="str">
         <f t="shared" si="0"/>
@@ -6347,13 +6356,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="43" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="G22" s="43" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="H22" s="43" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="I22" s="42">
         <v>1.6117309</v>
@@ -6383,7 +6392,7 @@
         <v>23383.73</v>
       </c>
       <c r="S22" s="11" t="s">
-        <v>168</v>
+        <v>113</v>
       </c>
       <c r="W22" s="4" t="str">
         <f t="shared" si="0"/>
@@ -6529,13 +6538,13 @@
         <v>16010.54</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="H3" s="7">
         <v>1.0896254999999999</v>
@@ -7037,13 +7046,13 @@
   <sheetData>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
@@ -7230,7 +7239,7 @@
     </row>
     <row r="17" spans="2:11" s="52" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="70" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="C17" s="71"/>
       <c r="K17" s="53"/>

--- a/data/MODELS_Evaluation.xlsx
+++ b/data/MODELS_Evaluation.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Data_Projects\MDS\master_thesis\fiscal-balance-forecast\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F5B688-C633-4195-8C5A-1FB6AB8476C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3197001-B732-4242-83A6-BBADF2B4FCF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C3E01645-CC42-4FDD-B1C0-083E9BF408D4}"/>
+    <workbookView xWindow="1164" yWindow="1008" windowWidth="21600" windowHeight="11232" xr2:uid="{C3E01645-CC42-4FDD-B1C0-083E9BF408D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Evaluate_outliers" sheetId="5" r:id="rId1"/>
     <sheet name="Evaluate_models" sheetId="7" r:id="rId2"/>
     <sheet name="Planilha1" sheetId="6" r:id="rId3"/>
     <sheet name="Accumulated results" sheetId="8" r:id="rId4"/>
-    <sheet name="Pipeline" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="171">
   <si>
     <t>RNN</t>
   </si>
@@ -65,72 +64,6 @@
     <t>SARIMAX</t>
   </si>
   <si>
-    <t xml:space="preserve">Pipeline </t>
-  </si>
-  <si>
-    <t>Naïve MA</t>
-  </si>
-  <si>
-    <t>Read the data</t>
-  </si>
-  <si>
-    <t>Create Synthetic data</t>
-  </si>
-  <si>
-    <t>Fill missing values</t>
-  </si>
-  <si>
-    <t>Remove outliers</t>
-  </si>
-  <si>
-    <t>Feature selection</t>
-  </si>
-  <si>
-    <t>Define test size and split the dataset in train/test</t>
-  </si>
-  <si>
-    <t>Scale the data</t>
-  </si>
-  <si>
-    <t>Differenciate</t>
-  </si>
-  <si>
-    <t>Find the best parameters for the model</t>
-  </si>
-  <si>
-    <t>Fit the best model</t>
-  </si>
-  <si>
-    <t>Plot the loss</t>
-  </si>
-  <si>
-    <t>Predict</t>
-  </si>
-  <si>
-    <t>Reverse differenciation</t>
-  </si>
-  <si>
-    <t>Reverse standardization</t>
-  </si>
-  <si>
-    <t>Compute mape, rmse and mae</t>
-  </si>
-  <si>
-    <t>plot the train and test data against their corresponding forecasts</t>
-  </si>
-  <si>
-    <t>plot_diagnostics</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>Trust interval?</t>
-  </si>
-  <si>
-    <t>How well the features describe our dependable variable?</t>
-  </si>
-  <si>
     <t>MAPE</t>
   </si>
   <si>
@@ -146,9 +79,6 @@
     <t>40 features - RF</t>
   </si>
   <si>
-    <t>O</t>
-  </si>
-  <si>
     <t>Dataset</t>
   </si>
   <si>
@@ -326,248 +256,314 @@
     <t>Brazilian monthly RB</t>
   </si>
   <si>
-    <t>Forecasted Brazilian accumulated PB 
+    <t>SARIMA (p=5, d=1, q=4, P=2,  D=0, Q=0, m=12)</t>
+  </si>
+  <si>
+    <t>SARIMAX (p=5, d=1, q=4, P=2,  D=0, Q=0, m=12)</t>
+  </si>
+  <si>
+    <t>Model: SARIMAX., File: ../data/data_orig_parameters.csv, Outlier Threshold: nan -&gt;, MAPE: 4.00, RMSE: 90089.25, MAE: 70023.61</t>
+  </si>
+  <si>
+    <t>Model: SARIMAX., File: ../data/data_orig_parameters.csv, Outlier Threshold: 0.05 -&gt;, MAPE: 3.25, RMSE: 77843.47, MAE: 58207.18</t>
+  </si>
+  <si>
+    <t>Model: SARIMAX., File: ../data/data_orig_parameters.csv, Outlier Threshold: 0.1 -&gt;, MAPE: 4.53, RMSE: 45271.07, MAE: 35030.28</t>
+  </si>
+  <si>
+    <t>Model: SARIMAX., File: ../data/data_orig_parameters.csv, Outlier Threshold: 0.15 -&gt;, MAPE: 10.06, RMSE: 28717.24, MAE: 23046.59</t>
+  </si>
+  <si>
+    <t>Model: SARIMAX., File: ../data/data_orig_parameters.csv, Outlier Threshold: 0.2 -&gt;, MAPE: 3.15, RMSE: 27656.73, MAE: 20848.04</t>
+  </si>
+  <si>
+    <t>Model: SARIMAX., File: ../data/data_cleaned_RF.csv, Outlier Threshold: nan -&gt;, MAPE: 1.43, RMSE: 50348.55, MAE: 33085.53</t>
+  </si>
+  <si>
+    <t>Model: SARIMAX., File: ../data/data_cleaned_RF.csv, Outlier Threshold: 0.05 -&gt;, MAPE: 1.32, RMSE: 45320.22, MAE: 30772.38</t>
+  </si>
+  <si>
+    <t>Model: SARIMAX., File: ../data/data_cleaned_RF.csv, Outlier Threshold: 0.1 -&gt;, MAPE: 4.85, RMSE: 34119.23, MAE: 24432.60</t>
+  </si>
+  <si>
+    <t>Model: SARIMAX., File: ../data/data_cleaned_RF.csv, Outlier Threshold: 0.15 -&gt;, MAPE: 4.82, RMSE: 21851.87, MAE: 17226.13</t>
+  </si>
+  <si>
+    <t>Model: SARIMAX., File: ../data/data_cleaned_RF.csv, Outlier Threshold: 0.2 -&gt;, MAPE: 3.07, RMSE: 23133.17, MAE: 18731.05</t>
+  </si>
+  <si>
+    <t>Model: SARIMAX., File: ../data/data_cleaned_LASSO.csv, Outlier Threshold: nan -&gt;, MAPE: 3.04, RMSE: 90064.05, MAE: 60194.47</t>
+  </si>
+  <si>
+    <t>Model: SARIMAX., File: ../data/data_cleaned_LASSO.csv, Outlier Threshold: 0.05 -&gt;, MAPE: 2.87, RMSE: 79826.52, MAE: 55230.30</t>
+  </si>
+  <si>
+    <t>Model: SARIMAX., File: ../data/data_cleaned_LASSO.csv, Outlier Threshold: 0.1 -&gt;, MAPE: 6.96, RMSE: 42450.54, MAE: 31055.29</t>
+  </si>
+  <si>
+    <t>Model: SARIMAX., File: ../data/data_cleaned_LASSO.csv, Outlier Threshold: 0.15 -&gt;, MAPE: 6.25, RMSE: 22271.00, MAE: 16769.87</t>
+  </si>
+  <si>
+    <t>Model: SARIMAX., File: ../data/data_cleaned_LASSO.csv, Outlier Threshold: 0.2 -&gt;, MAPE: 1.70, RMSE: 22172.52, MAE: 15651.17</t>
+  </si>
+  <si>
+    <t>Model: SARIMAX., File: ../data/data_cleaned_RFE.csv, Outlier Threshold: nan -&gt;, MAPE: 1.13, RMSE: 49046.49, MAE: 32049.16</t>
+  </si>
+  <si>
+    <t>Model: SARIMAX., File: ../data/data_cleaned_RFE.csv, Outlier Threshold: 0.05 -&gt;, MAPE: 1.09, RMSE: 44591.83, MAE: 30166.87</t>
+  </si>
+  <si>
+    <t>Model: SARIMAX., File: ../data/data_cleaned_RFE.csv, Outlier Threshold: 0.1 -&gt;, MAPE: 4.79, RMSE: 34600.12, MAE: 24184.66</t>
+  </si>
+  <si>
+    <t>Model: SARIMAX., File: ../data/data_cleaned_RFE.csv, Outlier Threshold: 0.15 -&gt;, MAPE: 7.09, RMSE: 23590.26, MAE: 17444.67</t>
+  </si>
+  <si>
+    <t>Model: SARIMAX., File: ../data/data_cleaned_RFE.csv, Outlier Threshold: 0.2 -&gt;, MAPE: 2.94, RMSE: 22734.24, MAE: 18157.11</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>90089.25</t>
+  </si>
+  <si>
+    <t>70023.61</t>
+  </si>
+  <si>
+    <t>3.25</t>
+  </si>
+  <si>
+    <t>77843.47</t>
+  </si>
+  <si>
+    <t>58207.18</t>
+  </si>
+  <si>
+    <t>4.53</t>
+  </si>
+  <si>
+    <t>45271.07</t>
+  </si>
+  <si>
+    <t>35030.28</t>
+  </si>
+  <si>
+    <t>28717.24</t>
+  </si>
+  <si>
+    <t>23046.59</t>
+  </si>
+  <si>
+    <t>3.15</t>
+  </si>
+  <si>
+    <t>27656.73</t>
+  </si>
+  <si>
+    <t>20848.04</t>
+  </si>
+  <si>
+    <t>50348.55</t>
+  </si>
+  <si>
+    <t>33085.53</t>
+  </si>
+  <si>
+    <t>1.32</t>
+  </si>
+  <si>
+    <t>45320.22</t>
+  </si>
+  <si>
+    <t>30772.38</t>
+  </si>
+  <si>
+    <t>4.85</t>
+  </si>
+  <si>
+    <t>34119.23</t>
+  </si>
+  <si>
+    <t>24432.60</t>
+  </si>
+  <si>
+    <t>4.82</t>
+  </si>
+  <si>
+    <t>21851.87</t>
+  </si>
+  <si>
+    <t>17226.13</t>
+  </si>
+  <si>
+    <t>3.07</t>
+  </si>
+  <si>
+    <t>23133.17</t>
+  </si>
+  <si>
+    <t>18731.05</t>
+  </si>
+  <si>
+    <t>3.04</t>
+  </si>
+  <si>
+    <t>90064.05</t>
+  </si>
+  <si>
+    <t>60194.47</t>
+  </si>
+  <si>
+    <t>2.87</t>
+  </si>
+  <si>
+    <t>79826.52</t>
+  </si>
+  <si>
+    <t>55230.30</t>
+  </si>
+  <si>
+    <t>6.96</t>
+  </si>
+  <si>
+    <t>42450.54</t>
+  </si>
+  <si>
+    <t>31055.29</t>
+  </si>
+  <si>
+    <t>6.25</t>
+  </si>
+  <si>
+    <t>22271.00</t>
+  </si>
+  <si>
+    <t>16769.87</t>
+  </si>
+  <si>
+    <t>1.70</t>
+  </si>
+  <si>
+    <t>22172.52</t>
+  </si>
+  <si>
+    <t>15651.17</t>
+  </si>
+  <si>
+    <t>1.13</t>
+  </si>
+  <si>
+    <t>49046.49</t>
+  </si>
+  <si>
+    <t>32049.16</t>
+  </si>
+  <si>
+    <t>1.09</t>
+  </si>
+  <si>
+    <t>44591.83</t>
+  </si>
+  <si>
+    <t>30166.87</t>
+  </si>
+  <si>
+    <t>4.79</t>
+  </si>
+  <si>
+    <t>34600.12</t>
+  </si>
+  <si>
+    <t>24184.66</t>
+  </si>
+  <si>
+    <t>7.09</t>
+  </si>
+  <si>
+    <t>23590.26</t>
+  </si>
+  <si>
+    <t>17444.67</t>
+  </si>
+  <si>
+    <t>2.94</t>
+  </si>
+  <si>
+    <t>22734.24</t>
+  </si>
+  <si>
+    <t>18157.11</t>
+  </si>
+  <si>
+    <t>New ORI - 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best Score: 0.029036641120910645 Best Parameters: {'alphas_l1_l2': 0.1, 'batch_size': 32, 'dropout_rate': 0.1, 'epochs': 20, 'learning_rate': 0.001, 'lstm_units': {1: 10, 2: 10, 3: 5}, 'n_layers': 1, 'optimizer': 'adam'} </t>
+  </si>
+  <si>
+    <t>ORI_annual_10</t>
+  </si>
+  <si>
+    <t>Best Score: 0.0022183870896697044 Best Parameters: {'batch_size': 64, 'dropout_rate': 0.1, 'epochs': 75, 'gru_units': {1: 200, 2: 200, 3: 100}, 'learning_rate': 0.001, 'n_layers': 3, 'optimizer': 'rmsprop'}</t>
+  </si>
+  <si>
+    <t>Best Score: 0.0010508028790354729 Best Parameters: {'batch_size': 64, 'dropout_rate': 0.1, 'epochs': 50, 'gru_units': {1: 10, 2: 10, 3: 5}, 'learning_rate': 0.001, 'n_layers': 2, 'optimizer': 'rmsprop'</t>
+  </si>
+  <si>
+    <t>RF-annual_10</t>
+  </si>
+  <si>
+    <t>Lasso-annual-10</t>
+  </si>
+  <si>
+    <t>Best Score: 0.0021672677248716354 Best Parameters: {'batch_size': 64, 'dropout_rate': 0.2, 'epochs': 75, 'gru_units': {1: 10, 2: 10, 3: 5}, 'learning_rate': 0.0001, 'n_layers': 3, 'optimizer': 'adam'}</t>
+  </si>
+  <si>
+    <t>RFE-annual-10</t>
+  </si>
+  <si>
+    <t>Best Score: 0.001872713677585125 Best Parameters: {'batch_size': 32, 'dropout_rate': 0.1, 'epochs': 50, 'gru_units': {1: 100, 2: 100, 3: 50}, 'learning_rate': 0.0001, 'n_layers': 2, 'optimizer': 'adam'}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best Score: 0.0017824770184233785 Best Parameters: {'batch_size': 128, 'dropout_rate': 0.2, 'epochs': 100, 'learning_rate': 0.01, 'n_layers': 2, 'optimizer': 'rmsprop', 'rnn_units': {1: 100, 2: 100, 3: 50}} </t>
+  </si>
+  <si>
+    <t>GRU_NEXT_ORI_10_</t>
+  </si>
+  <si>
+    <t>{'batch_size': 64, 'dropout_rate': 0.2, 'epochs': 75, 'gru_units': {1: 10, 2: 10, 3: 5}, 'learning_rate': 0.0001, 'n_layers': 3, 'optimizer': 'adam'}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best Score: 0.006200349424034357 Best Parameters: {'batch_size': 64, 'dropout_rate': 0.1, 'epochs': 50, 'gru_units': {1: 100, 2: 100, 3: 50}, 'learning_rate': 0.001, 'n_layers': 1, 'optimizer': 'rmsprop'} </t>
+  </si>
+  <si>
+    <t>GRU_NEXT_LASSO_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best Score: 0.0018538463627919555 Best Parameters: {'batch_size': 32, 'dropout_rate': 0.3, 'epochs': 50, 'learning_rate': 0.001, 'n_layers': 2, 'optimizer': 'rmsprop', 'rnn_units': {1: 400, 2: 300, 3: 100}} </t>
+  </si>
+  <si>
+    <t>Output is truncated. View as a scrollable element or open in a text editor. Adjust cell outp</t>
+  </si>
+  <si>
+    <t>RF_annual_10</t>
+  </si>
+  <si>
+    <t>Lasso-10</t>
+  </si>
+  <si>
+    <t>Best Score: 0.001867078710347414</t>
+  </si>
+  <si>
+    <t>Best Parameters: {'batch_size': 128, 'dropout_rate': 0.1, 'epochs': 20, 'learning_rate': 0.01, 'n_layers': 2, 'optimizer': 'rmsprop', 'rnn_units': {1: 100, 2: 100, 3: 50}}</t>
+  </si>
+  <si>
+    <t>RFE-10</t>
+  </si>
+  <si>
+    <t>Forecasted Brazilian PB - Cumulative 2024 
 (BRL million)</t>
-  </si>
-  <si>
-    <t>SARIMA (p=5, d=1, q=4, P=2,  D=0, Q=0, m=12)</t>
-  </si>
-  <si>
-    <t>SARIMAX (p=5, d=1, q=4, P=2,  D=0, Q=0, m=12)</t>
-  </si>
-  <si>
-    <t>Model: SARIMAX., File: ../data/data_orig_parameters.csv, Outlier Threshold: nan -&gt;, MAPE: 4.00, RMSE: 90089.25, MAE: 70023.61</t>
-  </si>
-  <si>
-    <t>Model: SARIMAX., File: ../data/data_orig_parameters.csv, Outlier Threshold: 0.05 -&gt;, MAPE: 3.25, RMSE: 77843.47, MAE: 58207.18</t>
-  </si>
-  <si>
-    <t>Model: SARIMAX., File: ../data/data_orig_parameters.csv, Outlier Threshold: 0.1 -&gt;, MAPE: 4.53, RMSE: 45271.07, MAE: 35030.28</t>
-  </si>
-  <si>
-    <t>Model: SARIMAX., File: ../data/data_orig_parameters.csv, Outlier Threshold: 0.15 -&gt;, MAPE: 10.06, RMSE: 28717.24, MAE: 23046.59</t>
-  </si>
-  <si>
-    <t>Model: SARIMAX., File: ../data/data_orig_parameters.csv, Outlier Threshold: 0.2 -&gt;, MAPE: 3.15, RMSE: 27656.73, MAE: 20848.04</t>
-  </si>
-  <si>
-    <t>Model: SARIMAX., File: ../data/data_cleaned_RF.csv, Outlier Threshold: nan -&gt;, MAPE: 1.43, RMSE: 50348.55, MAE: 33085.53</t>
-  </si>
-  <si>
-    <t>Model: SARIMAX., File: ../data/data_cleaned_RF.csv, Outlier Threshold: 0.05 -&gt;, MAPE: 1.32, RMSE: 45320.22, MAE: 30772.38</t>
-  </si>
-  <si>
-    <t>Model: SARIMAX., File: ../data/data_cleaned_RF.csv, Outlier Threshold: 0.1 -&gt;, MAPE: 4.85, RMSE: 34119.23, MAE: 24432.60</t>
-  </si>
-  <si>
-    <t>Model: SARIMAX., File: ../data/data_cleaned_RF.csv, Outlier Threshold: 0.15 -&gt;, MAPE: 4.82, RMSE: 21851.87, MAE: 17226.13</t>
-  </si>
-  <si>
-    <t>Model: SARIMAX., File: ../data/data_cleaned_RF.csv, Outlier Threshold: 0.2 -&gt;, MAPE: 3.07, RMSE: 23133.17, MAE: 18731.05</t>
-  </si>
-  <si>
-    <t>Model: SARIMAX., File: ../data/data_cleaned_LASSO.csv, Outlier Threshold: nan -&gt;, MAPE: 3.04, RMSE: 90064.05, MAE: 60194.47</t>
-  </si>
-  <si>
-    <t>Model: SARIMAX., File: ../data/data_cleaned_LASSO.csv, Outlier Threshold: 0.05 -&gt;, MAPE: 2.87, RMSE: 79826.52, MAE: 55230.30</t>
-  </si>
-  <si>
-    <t>Model: SARIMAX., File: ../data/data_cleaned_LASSO.csv, Outlier Threshold: 0.1 -&gt;, MAPE: 6.96, RMSE: 42450.54, MAE: 31055.29</t>
-  </si>
-  <si>
-    <t>Model: SARIMAX., File: ../data/data_cleaned_LASSO.csv, Outlier Threshold: 0.15 -&gt;, MAPE: 6.25, RMSE: 22271.00, MAE: 16769.87</t>
-  </si>
-  <si>
-    <t>Model: SARIMAX., File: ../data/data_cleaned_LASSO.csv, Outlier Threshold: 0.2 -&gt;, MAPE: 1.70, RMSE: 22172.52, MAE: 15651.17</t>
-  </si>
-  <si>
-    <t>Model: SARIMAX., File: ../data/data_cleaned_RFE.csv, Outlier Threshold: nan -&gt;, MAPE: 1.13, RMSE: 49046.49, MAE: 32049.16</t>
-  </si>
-  <si>
-    <t>Model: SARIMAX., File: ../data/data_cleaned_RFE.csv, Outlier Threshold: 0.05 -&gt;, MAPE: 1.09, RMSE: 44591.83, MAE: 30166.87</t>
-  </si>
-  <si>
-    <t>Model: SARIMAX., File: ../data/data_cleaned_RFE.csv, Outlier Threshold: 0.1 -&gt;, MAPE: 4.79, RMSE: 34600.12, MAE: 24184.66</t>
-  </si>
-  <si>
-    <t>Model: SARIMAX., File: ../data/data_cleaned_RFE.csv, Outlier Threshold: 0.15 -&gt;, MAPE: 7.09, RMSE: 23590.26, MAE: 17444.67</t>
-  </si>
-  <si>
-    <t>Model: SARIMAX., File: ../data/data_cleaned_RFE.csv, Outlier Threshold: 0.2 -&gt;, MAPE: 2.94, RMSE: 22734.24, MAE: 18157.11</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>90089.25</t>
-  </si>
-  <si>
-    <t>70023.61</t>
-  </si>
-  <si>
-    <t>3.25</t>
-  </si>
-  <si>
-    <t>77843.47</t>
-  </si>
-  <si>
-    <t>58207.18</t>
-  </si>
-  <si>
-    <t>4.53</t>
-  </si>
-  <si>
-    <t>45271.07</t>
-  </si>
-  <si>
-    <t>35030.28</t>
-  </si>
-  <si>
-    <t>28717.24</t>
-  </si>
-  <si>
-    <t>23046.59</t>
-  </si>
-  <si>
-    <t>3.15</t>
-  </si>
-  <si>
-    <t>27656.73</t>
-  </si>
-  <si>
-    <t>20848.04</t>
-  </si>
-  <si>
-    <t>50348.55</t>
-  </si>
-  <si>
-    <t>33085.53</t>
-  </si>
-  <si>
-    <t>1.32</t>
-  </si>
-  <si>
-    <t>45320.22</t>
-  </si>
-  <si>
-    <t>30772.38</t>
-  </si>
-  <si>
-    <t>4.85</t>
-  </si>
-  <si>
-    <t>34119.23</t>
-  </si>
-  <si>
-    <t>24432.60</t>
-  </si>
-  <si>
-    <t>4.82</t>
-  </si>
-  <si>
-    <t>21851.87</t>
-  </si>
-  <si>
-    <t>17226.13</t>
-  </si>
-  <si>
-    <t>3.07</t>
-  </si>
-  <si>
-    <t>23133.17</t>
-  </si>
-  <si>
-    <t>18731.05</t>
-  </si>
-  <si>
-    <t>3.04</t>
-  </si>
-  <si>
-    <t>90064.05</t>
-  </si>
-  <si>
-    <t>60194.47</t>
-  </si>
-  <si>
-    <t>2.87</t>
-  </si>
-  <si>
-    <t>79826.52</t>
-  </si>
-  <si>
-    <t>55230.30</t>
-  </si>
-  <si>
-    <t>6.96</t>
-  </si>
-  <si>
-    <t>42450.54</t>
-  </si>
-  <si>
-    <t>31055.29</t>
-  </si>
-  <si>
-    <t>6.25</t>
-  </si>
-  <si>
-    <t>22271.00</t>
-  </si>
-  <si>
-    <t>16769.87</t>
-  </si>
-  <si>
-    <t>1.70</t>
-  </si>
-  <si>
-    <t>22172.52</t>
-  </si>
-  <si>
-    <t>15651.17</t>
-  </si>
-  <si>
-    <t>1.13</t>
-  </si>
-  <si>
-    <t>49046.49</t>
-  </si>
-  <si>
-    <t>32049.16</t>
-  </si>
-  <si>
-    <t>1.09</t>
-  </si>
-  <si>
-    <t>44591.83</t>
-  </si>
-  <si>
-    <t>30166.87</t>
-  </si>
-  <si>
-    <t>4.79</t>
-  </si>
-  <si>
-    <t>34600.12</t>
-  </si>
-  <si>
-    <t>24184.66</t>
-  </si>
-  <si>
-    <t>7.09</t>
-  </si>
-  <si>
-    <t>23590.26</t>
-  </si>
-  <si>
-    <t>17444.67</t>
-  </si>
-  <si>
-    <t>2.94</t>
-  </si>
-  <si>
-    <t>22734.24</t>
-  </si>
-  <si>
-    <t>18157.11</t>
   </si>
 </sst>
 </file>
@@ -902,11 +898,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4944,1465 +4937,1465 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.88671875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" style="9" customWidth="1"/>
-    <col min="4" max="8" width="10.44140625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="7.88671875" style="9" customWidth="1"/>
-    <col min="10" max="11" width="10.44140625" style="9" customWidth="1"/>
-    <col min="12" max="12" width="7.88671875" style="9" customWidth="1"/>
-    <col min="13" max="14" width="10.44140625" style="9" customWidth="1"/>
-    <col min="15" max="15" width="7.88671875" style="9" customWidth="1"/>
-    <col min="16" max="17" width="10.44140625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" style="8" customWidth="1"/>
+    <col min="4" max="8" width="10.44140625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="7.88671875" style="8" customWidth="1"/>
+    <col min="10" max="11" width="10.44140625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="7.88671875" style="8" customWidth="1"/>
+    <col min="13" max="14" width="10.44140625" style="8" customWidth="1"/>
+    <col min="15" max="15" width="7.88671875" style="8" customWidth="1"/>
+    <col min="16" max="17" width="10.44140625" style="8" customWidth="1"/>
     <col min="23" max="23" width="9.88671875" customWidth="1"/>
     <col min="24" max="24" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="66" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="60" t="s">
+      <c r="A1" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="60"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="60"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="60"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="60"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+    </row>
+    <row r="2" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="68"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="U2" t="s">
+        <v>59</v>
+      </c>
+      <c r="V2" t="s">
+        <v>58</v>
+      </c>
+      <c r="W2" t="s">
+        <v>4</v>
+      </c>
+      <c r="X2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="16">
+        <v>0</v>
+      </c>
+      <c r="C3" s="17">
+        <v>1.63852689457469</v>
+      </c>
+      <c r="D3" s="18">
+        <v>49196.304690600999</v>
+      </c>
+      <c r="E3" s="19">
+        <v>34045.0198727717</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="G1" s="61"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="61"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="61"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="60" t="s">
-        <v>58</v>
-      </c>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-    </row>
-    <row r="2" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="69"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="U2" t="s">
-        <v>82</v>
-      </c>
-      <c r="V2" t="s">
-        <v>81</v>
-      </c>
-      <c r="W2" t="s">
-        <v>26</v>
-      </c>
-      <c r="X2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" s="11" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="63" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="17">
-        <v>0</v>
-      </c>
-      <c r="C3" s="18">
-        <v>1.63852689457469</v>
-      </c>
-      <c r="D3" s="19">
-        <v>49196.304690600999</v>
-      </c>
-      <c r="E3" s="20">
-        <v>34045.0198727717</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="I3" s="18">
+      <c r="I3" s="17">
         <v>1.2503922000000001</v>
       </c>
-      <c r="J3" s="19">
+      <c r="J3" s="18">
         <v>42860.07</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="19">
         <v>34059.016000000003</v>
       </c>
-      <c r="L3" s="18">
+      <c r="L3" s="17">
         <v>1.1378584</v>
       </c>
-      <c r="M3" s="19">
+      <c r="M3" s="18">
         <v>43489.535000000003</v>
       </c>
-      <c r="N3" s="20">
+      <c r="N3" s="19">
         <v>33419.54</v>
       </c>
-      <c r="O3" s="18">
+      <c r="O3" s="17">
         <v>1.8026571</v>
       </c>
-      <c r="P3" s="19">
+      <c r="P3" s="18">
         <v>59742.612999999998</v>
       </c>
-      <c r="Q3" s="19">
+      <c r="Q3" s="18">
         <v>43228.89</v>
       </c>
-      <c r="S3" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="T3" s="11">
+      <c r="S3" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="T3" s="10">
         <f>SEARCH("RMSE:",S3,1)</f>
         <v>97</v>
       </c>
-      <c r="U3" s="11">
+      <c r="U3" s="10">
         <f>SEARCH("MAE:",S3,1)</f>
         <v>113</v>
       </c>
-      <c r="V3" s="11">
+      <c r="V3" s="10">
         <f>SEARCH("MAPE:",S3,1)</f>
         <v>85</v>
       </c>
-      <c r="W3" s="4" t="str">
+      <c r="W3" s="3" t="str">
         <f>RIGHT(LEFT(S3,SEARCH("RMSE:",S3,1)-3),4)</f>
         <v>4.00</v>
       </c>
-      <c r="X3" s="11" t="str">
+      <c r="X3" s="10" t="str">
         <f>RIGHT(LEFT(S3,SEARCH("MAE:",S3,1)-3),8)</f>
         <v>90089.25</v>
       </c>
-      <c r="Y3" s="11" t="str">
+      <c r="Y3" s="10" t="str">
         <f>RIGHT(S3,LEN(S3)-SEARCH("MAE:",S3,1)-4)</f>
         <v>70023.61</v>
       </c>
-      <c r="Z3" s="11" t="e">
+      <c r="Z3" s="10" t="e">
         <f>RIGHT(V3,LEN(V3)-SEARCH("MAE:",V3,1)-4)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="11" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="63"/>
-      <c r="B4" s="10">
+    <row r="4" spans="1:26" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="62"/>
+      <c r="B4" s="9">
         <v>0.05</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="12">
         <v>1.6320384965211301</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>41952.57</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <v>30807.03</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="I4" s="13">
+      <c r="F4" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4" s="12">
         <v>1.2527347</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="11">
         <v>48257.453000000001</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="14">
         <v>38263.49</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="12">
         <v>1.004893</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="11">
         <v>42065.574000000001</v>
       </c>
-      <c r="N4" s="15">
+      <c r="N4" s="14">
         <v>32506.44</v>
       </c>
-      <c r="O4" s="13">
+      <c r="O4" s="12">
         <v>1.5724187999999999</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="11">
         <v>56338.75</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="Q4" s="11">
         <v>42295.43</v>
       </c>
-      <c r="S4" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="W4" s="4" t="str">
+      <c r="S4" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="W4" s="3" t="str">
         <f t="shared" ref="W4:W22" si="0">RIGHT(LEFT(S4,SEARCH("RMSE:",S4,1)-3),4)</f>
         <v>3.25</v>
       </c>
-      <c r="X4" s="11" t="str">
+      <c r="X4" s="10" t="str">
         <f t="shared" ref="X4:X22" si="1">RIGHT(LEFT(S4,SEARCH("MAE:",S4,1)-3),8)</f>
         <v>77843.47</v>
       </c>
-      <c r="Y4" s="11" t="str">
+      <c r="Y4" s="10" t="str">
         <f t="shared" ref="Y4:Y22" si="2">RIGHT(S4,LEN(S4)-SEARCH("MAE:",S4,1)-4)</f>
         <v>58207.18</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="11" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="63"/>
-      <c r="B5" s="10">
+    <row r="5" spans="1:26" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="62"/>
+      <c r="B5" s="9">
         <v>0.1</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <v>2.3559233440320599</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>22466.89</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <v>18193.53</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="I5" s="13">
+      <c r="F5" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5" s="12">
         <v>5.3872309999999999</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="11">
         <v>35339.207000000002</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="14">
         <v>28704.162</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="12">
         <v>1.4589344</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="11">
         <v>26050.940999999999</v>
       </c>
-      <c r="N5" s="15">
+      <c r="N5" s="14">
         <v>22647.925999999999</v>
       </c>
-      <c r="O5" s="13">
+      <c r="O5" s="12">
         <v>2.0434853999999998</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="11">
         <v>31490.34</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q5" s="11">
         <v>27364.518</v>
       </c>
-      <c r="S5" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="W5" s="4" t="str">
+      <c r="S5" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="W5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>4.53</v>
       </c>
-      <c r="X5" s="11" t="str">
+      <c r="X5" s="10" t="str">
         <f t="shared" si="1"/>
         <v>45271.07</v>
       </c>
-      <c r="Y5" s="11" t="str">
+      <c r="Y5" s="10" t="str">
         <f t="shared" si="2"/>
         <v>35030.28</v>
       </c>
     </row>
-    <row r="6" spans="1:26" s="11" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="63"/>
-      <c r="B6" s="10">
+    <row r="6" spans="1:26" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="62"/>
+      <c r="B6" s="9">
         <v>0.15</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="12">
         <v>2.4118041668011401</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>19321.009999999998</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <v>16278</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <v>10.06</v>
       </c>
-      <c r="G6" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I6" s="13">
+      <c r="G6" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" s="12">
         <v>1.2080169000000001</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="11">
         <v>27707.828000000001</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="14">
         <v>24178.761999999999</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="12">
         <v>1.3840519</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="11">
         <v>26159.526999999998</v>
       </c>
-      <c r="N6" s="15">
+      <c r="N6" s="14">
         <v>22708.22</v>
       </c>
-      <c r="O6" s="13">
+      <c r="O6" s="12">
         <v>2.6216952999999998</v>
       </c>
-      <c r="P6" s="12">
+      <c r="P6" s="11">
         <v>25587.41</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="Q6" s="11">
         <v>21297.418000000001</v>
       </c>
-      <c r="S6" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="W6" s="4" t="str">
+      <c r="S6" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="W6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="X6" s="11" t="str">
+      <c r="X6" s="10" t="str">
         <f t="shared" si="1"/>
         <v>28717.24</v>
       </c>
-      <c r="Y6" s="11" t="str">
+      <c r="Y6" s="10" t="str">
         <f t="shared" si="2"/>
         <v>23046.59</v>
       </c>
     </row>
-    <row r="7" spans="1:26" s="11" customFormat="1" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="63"/>
-      <c r="B7" s="24">
+    <row r="7" spans="1:26" s="10" customFormat="1" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="62"/>
+      <c r="B7" s="23">
         <v>0.2</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="24">
         <v>2.2599999999999998</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="25">
         <v>19416.240000000002</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="26">
         <v>16010.54</v>
       </c>
-      <c r="F7" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="I7" s="25">
+      <c r="F7" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="I7" s="24">
         <v>1.1386377000000001</v>
       </c>
-      <c r="J7" s="26">
+      <c r="J7" s="25">
         <v>23445.928</v>
       </c>
-      <c r="K7" s="27">
+      <c r="K7" s="26">
         <v>20241.75</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L7" s="24">
         <v>1.0264956000000001</v>
       </c>
-      <c r="M7" s="26">
+      <c r="M7" s="25">
         <v>23023.914000000001</v>
       </c>
-      <c r="N7" s="27">
+      <c r="N7" s="26">
         <v>19619.043000000001</v>
       </c>
-      <c r="O7" s="25">
+      <c r="O7" s="24">
         <v>1.2862047999999999</v>
       </c>
-      <c r="P7" s="26">
+      <c r="P7" s="25">
         <v>23192.736000000001</v>
       </c>
-      <c r="Q7" s="26">
+      <c r="Q7" s="25">
         <v>19097.261999999999</v>
       </c>
-      <c r="S7" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="W7" s="4" t="str">
+      <c r="S7" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="W7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>3.15</v>
       </c>
-      <c r="X7" s="11" t="str">
+      <c r="X7" s="10" t="str">
         <f t="shared" si="1"/>
         <v>27656.73</v>
       </c>
-      <c r="Y7" s="11" t="str">
+      <c r="Y7" s="10" t="str">
         <f t="shared" si="2"/>
         <v>20848.04</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="11" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="31">
+    <row r="8" spans="1:26" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="30">
         <v>0</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="31">
         <v>0</v>
       </c>
-      <c r="D8" s="33">
+      <c r="D8" s="32">
         <v>0</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="33">
         <v>0</v>
       </c>
-      <c r="F8" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="I8" s="32">
+      <c r="F8" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" s="31">
         <v>1.5047504</v>
       </c>
-      <c r="J8" s="33">
+      <c r="J8" s="32">
         <v>49969.535000000003</v>
       </c>
-      <c r="K8" s="34">
+      <c r="K8" s="33">
         <v>39700.214999999997</v>
       </c>
-      <c r="L8" s="32">
+      <c r="L8" s="31">
         <v>1.2618277</v>
       </c>
-      <c r="M8" s="33">
+      <c r="M8" s="32">
         <v>46301.726999999999</v>
       </c>
-      <c r="N8" s="34">
+      <c r="N8" s="33">
         <v>36408.434000000001</v>
       </c>
-      <c r="O8" s="32">
+      <c r="O8" s="31">
         <v>1.7055686000000001</v>
       </c>
-      <c r="P8" s="33">
+      <c r="P8" s="32">
         <v>52900.925999999999</v>
       </c>
-      <c r="Q8" s="33">
+      <c r="Q8" s="32">
         <v>41928.559999999998</v>
       </c>
-      <c r="S8" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="W8" s="4" t="str">
+      <c r="S8" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="W8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>1.43</v>
       </c>
-      <c r="X8" s="11" t="str">
+      <c r="X8" s="10" t="str">
         <f t="shared" si="1"/>
         <v>50348.55</v>
       </c>
-      <c r="Y8" s="11" t="str">
+      <c r="Y8" s="10" t="str">
         <f t="shared" si="2"/>
         <v>33085.53</v>
       </c>
     </row>
-    <row r="9" spans="1:26" s="11" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="63"/>
-      <c r="B9" s="10">
+    <row r="9" spans="1:26" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="62"/>
+      <c r="B9" s="9">
         <v>0.05</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <v>0</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>0</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="15">
         <v>0</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="I9" s="14">
+      <c r="F9" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I9" s="13">
         <v>1.2297378000000001</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <v>46889.417999999998</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="15">
         <v>36217.995999999999</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="13">
         <v>1.1057668</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="5">
         <v>43176.75</v>
       </c>
-      <c r="N9" s="16">
+      <c r="N9" s="15">
         <v>33070.093999999997</v>
       </c>
-      <c r="O9" s="14">
+      <c r="O9" s="13">
         <v>1.4941690000000001</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9" s="5">
         <v>50629.086000000003</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9" s="5">
         <v>39486.425999999999</v>
       </c>
-      <c r="S9" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="W9" s="4" t="str">
+      <c r="S9" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="W9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>1.32</v>
       </c>
-      <c r="X9" s="11" t="str">
+      <c r="X9" s="10" t="str">
         <f t="shared" si="1"/>
         <v>45320.22</v>
       </c>
-      <c r="Y9" s="11" t="str">
+      <c r="Y9" s="10" t="str">
         <f t="shared" si="2"/>
         <v>30772.38</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="11" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="63"/>
-      <c r="B10" s="10">
+    <row r="10" spans="1:26" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="62"/>
+      <c r="B10" s="9">
         <v>0.1</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>0</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>0</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="15">
         <v>0</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="I10" s="14">
+      <c r="F10" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I10" s="13">
         <v>11.221829</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <v>38852.379999999997</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="15">
         <v>29076.31</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="13">
         <v>3.0555045999999999</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="5">
         <v>25174.703000000001</v>
       </c>
-      <c r="N10" s="16">
+      <c r="N10" s="15">
         <v>22252.875</v>
       </c>
-      <c r="O10" s="14">
+      <c r="O10" s="13">
         <v>2.0255787000000001</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10" s="5">
         <v>37785.49</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q10" s="5">
         <v>32323.474999999999</v>
       </c>
-      <c r="S10" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="W10" s="4" t="str">
+      <c r="S10" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="W10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>4.85</v>
       </c>
-      <c r="X10" s="11" t="str">
+      <c r="X10" s="10" t="str">
         <f t="shared" si="1"/>
         <v>34119.23</v>
       </c>
-      <c r="Y10" s="11" t="str">
+      <c r="Y10" s="10" t="str">
         <f t="shared" si="2"/>
         <v>24432.60</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="11" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="63"/>
-      <c r="B11" s="10">
+    <row r="11" spans="1:26" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="62"/>
+      <c r="B11" s="9">
         <v>0.15</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="13">
         <v>0</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>0</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="15">
         <v>0</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="I11" s="14">
+      <c r="F11" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="I11" s="13">
         <v>11.677142999999999</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="5">
         <v>44591.06</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="15">
         <v>35610.792999999998</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="13">
         <v>2.6051340000000001</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="5">
         <v>25141.719000000001</v>
       </c>
-      <c r="N11" s="16">
+      <c r="N11" s="15">
         <v>22181.625</v>
       </c>
-      <c r="O11" s="14">
+      <c r="O11" s="13">
         <v>1.1555359000000001</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P11" s="5">
         <v>28635.41</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="Q11" s="5">
         <v>24749.831999999999</v>
       </c>
-      <c r="S11" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="W11" s="4" t="str">
+      <c r="S11" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="W11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>4.82</v>
       </c>
-      <c r="X11" s="11" t="str">
+      <c r="X11" s="10" t="str">
         <f t="shared" si="1"/>
         <v>21851.87</v>
       </c>
-      <c r="Y11" s="11" t="str">
+      <c r="Y11" s="10" t="str">
         <f t="shared" si="2"/>
         <v>17226.13</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="11" customFormat="1" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="64"/>
-      <c r="B12" s="35">
+    <row r="12" spans="1:26" s="10" customFormat="1" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="63"/>
+      <c r="B12" s="34">
         <v>0.2</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="35">
         <v>0</v>
       </c>
-      <c r="D12" s="37">
+      <c r="D12" s="36">
         <v>0</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="37">
         <v>0</v>
       </c>
-      <c r="F12" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="G12" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="H12" s="43" t="s">
-        <v>141</v>
-      </c>
-      <c r="I12" s="42">
+      <c r="F12" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="H12" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="I12" s="41">
         <v>2.1279154</v>
       </c>
-      <c r="J12" s="43">
+      <c r="J12" s="42">
         <v>28765.119999999999</v>
       </c>
-      <c r="K12" s="44">
+      <c r="K12" s="43">
         <v>22604.421999999999</v>
       </c>
-      <c r="L12" s="42">
+      <c r="L12" s="41">
         <v>1.0208744999999999</v>
       </c>
-      <c r="M12" s="43">
+      <c r="M12" s="42">
         <v>22544.46</v>
       </c>
-      <c r="N12" s="44">
+      <c r="N12" s="43">
         <v>19400.976999999999</v>
       </c>
-      <c r="O12" s="42">
+      <c r="O12" s="41">
         <v>1.0121853000000001</v>
       </c>
-      <c r="P12" s="43">
+      <c r="P12" s="42">
         <v>25341.252</v>
       </c>
-      <c r="Q12" s="43">
+      <c r="Q12" s="42">
         <v>20842.898000000001</v>
       </c>
-      <c r="S12" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="W12" s="4" t="str">
+      <c r="S12" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="W12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>3.07</v>
       </c>
-      <c r="X12" s="11" t="str">
+      <c r="X12" s="10" t="str">
         <f t="shared" si="1"/>
         <v>23133.17</v>
       </c>
-      <c r="Y12" s="11" t="str">
+      <c r="Y12" s="10" t="str">
         <f t="shared" si="2"/>
         <v>18731.05</v>
       </c>
     </row>
-    <row r="13" spans="1:26" s="11" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="17">
+    <row r="13" spans="1:26" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="16">
         <v>0</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="27">
         <v>0</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="28">
         <v>0</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="29">
         <v>0</v>
       </c>
-      <c r="F13" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="H13" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="I13" s="28">
+      <c r="F13" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="I13" s="27">
         <v>1.1452293</v>
       </c>
-      <c r="J13" s="29">
+      <c r="J13" s="28">
         <v>43125.79</v>
       </c>
-      <c r="K13" s="30">
+      <c r="K13" s="29">
         <v>33260.023000000001</v>
       </c>
-      <c r="L13" s="28">
+      <c r="L13" s="27">
         <v>1.019739</v>
       </c>
-      <c r="M13" s="29">
+      <c r="M13" s="28">
         <v>44571.37</v>
       </c>
-      <c r="N13" s="30">
+      <c r="N13" s="29">
         <v>34451.620000000003</v>
       </c>
-      <c r="O13" s="28">
+      <c r="O13" s="27">
         <v>1.8524871000000001</v>
       </c>
-      <c r="P13" s="29">
+      <c r="P13" s="28">
         <v>49376.722999999998</v>
       </c>
-      <c r="Q13" s="29">
+      <c r="Q13" s="28">
         <v>37868.413999999997</v>
       </c>
-      <c r="S13" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="W13" s="4" t="str">
+      <c r="S13" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="W13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>3.04</v>
       </c>
-      <c r="X13" s="11" t="str">
+      <c r="X13" s="10" t="str">
         <f t="shared" si="1"/>
         <v>90064.05</v>
       </c>
-      <c r="Y13" s="11" t="str">
+      <c r="Y13" s="10" t="str">
         <f t="shared" si="2"/>
         <v>60194.47</v>
       </c>
     </row>
-    <row r="14" spans="1:26" s="11" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="63"/>
-      <c r="B14" s="10">
+    <row r="14" spans="1:26" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="62"/>
+      <c r="B14" s="9">
         <v>0.05</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="13">
         <v>0</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>0</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="15">
         <v>0</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="I14" s="14">
+      <c r="F14" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I14" s="13">
         <v>1.0494342000000001</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="5">
         <v>41671.637000000002</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="15">
         <v>32107.68</v>
       </c>
-      <c r="L14" s="14">
+      <c r="L14" s="13">
         <v>1.0250623000000001</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="5">
         <v>42319.57</v>
       </c>
-      <c r="N14" s="16">
+      <c r="N14" s="15">
         <v>32818.175999999999</v>
       </c>
-      <c r="O14" s="14">
+      <c r="O14" s="13">
         <v>1.5311929</v>
       </c>
-      <c r="P14" s="6">
+      <c r="P14" s="5">
         <v>45971.51</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="Q14" s="5">
         <v>35612.805</v>
       </c>
-      <c r="S14" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="W14" s="4" t="str">
+      <c r="S14" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="W14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2.87</v>
       </c>
-      <c r="X14" s="11" t="str">
+      <c r="X14" s="10" t="str">
         <f t="shared" si="1"/>
         <v>79826.52</v>
       </c>
-      <c r="Y14" s="11" t="str">
+      <c r="Y14" s="10" t="str">
         <f t="shared" si="2"/>
         <v>55230.30</v>
       </c>
     </row>
-    <row r="15" spans="1:26" s="11" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="63"/>
-      <c r="B15" s="10">
+    <row r="15" spans="1:26" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="62"/>
+      <c r="B15" s="9">
         <v>0.1</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="13">
         <v>0</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>0</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="15">
         <v>0</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="I15" s="14">
+      <c r="F15" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="I15" s="13">
         <v>2.8799771999999999</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="5">
         <v>24658.870999999999</v>
       </c>
-      <c r="K15" s="16">
+      <c r="K15" s="15">
         <v>21629.87</v>
       </c>
-      <c r="L15" s="14">
+      <c r="L15" s="13">
         <v>2.6866121000000001</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="5">
         <v>24914.241999999998</v>
       </c>
-      <c r="N15" s="16">
+      <c r="N15" s="15">
         <v>21954.842000000001</v>
       </c>
-      <c r="O15" s="14">
+      <c r="O15" s="13">
         <v>1.3755577000000001</v>
       </c>
-      <c r="P15" s="6">
+      <c r="P15" s="5">
         <v>25924.263999999999</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="Q15" s="5">
         <v>20804.95</v>
       </c>
-      <c r="S15" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="W15" s="4" t="str">
+      <c r="S15" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="W15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>6.96</v>
       </c>
-      <c r="X15" s="11" t="str">
+      <c r="X15" s="10" t="str">
         <f t="shared" si="1"/>
         <v>42450.54</v>
       </c>
-      <c r="Y15" s="11" t="str">
+      <c r="Y15" s="10" t="str">
         <f t="shared" si="2"/>
         <v>31055.29</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="11" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="63"/>
-      <c r="B16" s="10">
+    <row r="16" spans="1:26" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="62"/>
+      <c r="B16" s="9">
         <v>0.15</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="13">
         <v>0</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>0</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="15">
         <v>0</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="I16" s="14">
+      <c r="F16" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="I16" s="13">
         <v>2.6272669999999998</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="5">
         <v>24483.287</v>
       </c>
-      <c r="K16" s="16">
+      <c r="K16" s="15">
         <v>21462.098000000002</v>
       </c>
-      <c r="L16" s="14">
+      <c r="L16" s="13">
         <v>2.6412182</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="5">
         <v>24752.543000000001</v>
       </c>
-      <c r="N16" s="16">
+      <c r="N16" s="15">
         <v>21791.275000000001</v>
       </c>
-      <c r="O16" s="14">
+      <c r="O16" s="13">
         <v>2.2431516999999999</v>
       </c>
-      <c r="P16" s="6">
+      <c r="P16" s="5">
         <v>23950.594000000001</v>
       </c>
-      <c r="Q16" s="6">
+      <c r="Q16" s="5">
         <v>19591.241999999998</v>
       </c>
-      <c r="S16" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="W16" s="4" t="str">
+      <c r="S16" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="W16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>6.25</v>
       </c>
-      <c r="X16" s="11" t="str">
+      <c r="X16" s="10" t="str">
         <f t="shared" si="1"/>
         <v>22271.00</v>
       </c>
-      <c r="Y16" s="11" t="str">
+      <c r="Y16" s="10" t="str">
         <f t="shared" si="2"/>
         <v>16769.87</v>
       </c>
     </row>
-    <row r="17" spans="1:25" s="11" customFormat="1" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="63"/>
-      <c r="B17" s="24">
+    <row r="17" spans="1:25" s="10" customFormat="1" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="62"/>
+      <c r="B17" s="23">
         <v>0.2</v>
       </c>
-      <c r="C17" s="39">
+      <c r="C17" s="38">
         <v>0</v>
       </c>
-      <c r="D17" s="40">
+      <c r="D17" s="39">
         <v>0</v>
       </c>
-      <c r="E17" s="41">
+      <c r="E17" s="40">
         <v>0</v>
       </c>
-      <c r="F17" s="46" t="s">
-        <v>154</v>
-      </c>
-      <c r="G17" s="46" t="s">
-        <v>155</v>
-      </c>
-      <c r="H17" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="I17" s="45">
+      <c r="F17" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="H17" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="I17" s="44">
         <v>1.0896254999999999</v>
       </c>
-      <c r="J17" s="46">
+      <c r="J17" s="45">
         <v>22165.636999999999</v>
       </c>
-      <c r="K17" s="47">
+      <c r="K17" s="46">
         <v>19254.035</v>
       </c>
-      <c r="L17" s="45">
+      <c r="L17" s="44">
         <v>0.95195220000000003</v>
       </c>
-      <c r="M17" s="46">
+      <c r="M17" s="45">
         <v>22407.453000000001</v>
       </c>
-      <c r="N17" s="47">
+      <c r="N17" s="46">
         <v>19182.148000000001</v>
       </c>
-      <c r="O17" s="45">
+      <c r="O17" s="44">
         <v>1.2241329999999999</v>
       </c>
-      <c r="P17" s="46">
+      <c r="P17" s="45">
         <v>18526.266</v>
       </c>
-      <c r="Q17" s="46">
+      <c r="Q17" s="45">
         <v>15323.695</v>
       </c>
-      <c r="S17" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="W17" s="4" t="str">
+      <c r="S17" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="W17" s="3" t="str">
         <f t="shared" si="0"/>
         <v>1.70</v>
       </c>
-      <c r="X17" s="11" t="str">
+      <c r="X17" s="10" t="str">
         <f t="shared" si="1"/>
         <v>22172.52</v>
       </c>
-      <c r="Y17" s="11" t="str">
+      <c r="Y17" s="10" t="str">
         <f t="shared" si="2"/>
         <v>15651.17</v>
       </c>
     </row>
-    <row r="18" spans="1:25" s="11" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="62" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="31">
+    <row r="18" spans="1:25" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="30">
         <v>0</v>
       </c>
-      <c r="C18" s="32">
+      <c r="C18" s="31">
         <v>0</v>
       </c>
-      <c r="D18" s="33">
+      <c r="D18" s="32">
         <v>0</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E18" s="33">
         <v>0</v>
       </c>
-      <c r="F18" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="G18" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="H18" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="I18" s="32">
+      <c r="F18" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="H18" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="I18" s="31">
         <v>1.0293546</v>
       </c>
-      <c r="J18" s="33">
+      <c r="J18" s="32">
         <v>42174.394999999997</v>
       </c>
-      <c r="K18" s="34">
+      <c r="K18" s="33">
         <v>32961.593999999997</v>
       </c>
-      <c r="L18" s="32">
+      <c r="L18" s="31">
         <v>1.0353479000000001</v>
       </c>
-      <c r="M18" s="33">
+      <c r="M18" s="32">
         <v>43451.894999999997</v>
       </c>
-      <c r="N18" s="34">
+      <c r="N18" s="33">
         <v>33882.983999999997</v>
       </c>
-      <c r="O18" s="32">
+      <c r="O18" s="31">
         <v>1.1892437</v>
       </c>
-      <c r="P18" s="33">
+      <c r="P18" s="32">
         <v>45399.41</v>
       </c>
-      <c r="Q18" s="33">
+      <c r="Q18" s="32">
         <v>35826.004000000001</v>
       </c>
-      <c r="S18" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="W18" s="4" t="str">
+      <c r="S18" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="W18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>1.13</v>
       </c>
-      <c r="X18" s="11" t="str">
+      <c r="X18" s="10" t="str">
         <f t="shared" si="1"/>
         <v>49046.49</v>
       </c>
-      <c r="Y18" s="11" t="str">
+      <c r="Y18" s="10" t="str">
         <f t="shared" si="2"/>
         <v>32049.16</v>
       </c>
     </row>
-    <row r="19" spans="1:25" s="11" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="63"/>
-      <c r="B19" s="10">
+    <row r="19" spans="1:25" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="62"/>
+      <c r="B19" s="9">
         <v>0.05</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="13">
         <v>0</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>0</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="15">
         <v>0</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="I19" s="14">
+      <c r="F19" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I19" s="13">
         <v>1.0866214999999999</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="5">
         <v>41470.339999999997</v>
       </c>
-      <c r="K19" s="16">
+      <c r="K19" s="15">
         <v>31845.588</v>
       </c>
-      <c r="L19" s="14">
+      <c r="L19" s="13">
         <v>1.0472881999999999</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="5">
         <v>42390.434000000001</v>
       </c>
-      <c r="N19" s="16">
+      <c r="N19" s="15">
         <v>32537.738000000001</v>
       </c>
-      <c r="O19" s="14">
+      <c r="O19" s="13">
         <v>1.2581059000000001</v>
       </c>
-      <c r="P19" s="6">
+      <c r="P19" s="5">
         <v>45670.92</v>
       </c>
-      <c r="Q19" s="6">
+      <c r="Q19" s="5">
         <v>36292.660000000003</v>
       </c>
-      <c r="S19" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="W19" s="4" t="str">
+      <c r="S19" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="W19" s="3" t="str">
         <f t="shared" si="0"/>
         <v>1.09</v>
       </c>
-      <c r="X19" s="11" t="str">
+      <c r="X19" s="10" t="str">
         <f t="shared" si="1"/>
         <v>44591.83</v>
       </c>
-      <c r="Y19" s="11" t="str">
+      <c r="Y19" s="10" t="str">
         <f t="shared" si="2"/>
         <v>30166.87</v>
       </c>
     </row>
-    <row r="20" spans="1:25" s="11" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="63"/>
-      <c r="B20" s="10">
+    <row r="20" spans="1:25" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="62"/>
+      <c r="B20" s="9">
         <v>0.1</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="13">
         <v>0</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>0</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="15">
         <v>0</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="I20" s="14">
+      <c r="F20" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="I20" s="13">
         <v>2.5609815</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="5">
         <v>24849.64</v>
       </c>
-      <c r="K20" s="16">
+      <c r="K20" s="15">
         <v>21800.366999999998</v>
       </c>
-      <c r="L20" s="14">
+      <c r="L20" s="13">
         <v>2.0150527999999999</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="5">
         <v>25497.973000000002</v>
       </c>
-      <c r="N20" s="16">
+      <c r="N20" s="15">
         <v>22461.87</v>
       </c>
-      <c r="O20" s="14">
+      <c r="O20" s="13">
         <v>6.2098950000000004</v>
       </c>
-      <c r="P20" s="6">
+      <c r="P20" s="5">
         <v>33831.26</v>
       </c>
-      <c r="Q20" s="6">
+      <c r="Q20" s="5">
         <v>28626.437999999998</v>
       </c>
-      <c r="S20" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="W20" s="4" t="str">
+      <c r="S20" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="W20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>4.79</v>
       </c>
-      <c r="X20" s="11" t="str">
+      <c r="X20" s="10" t="str">
         <f t="shared" si="1"/>
         <v>34600.12</v>
       </c>
-      <c r="Y20" s="11" t="str">
+      <c r="Y20" s="10" t="str">
         <f t="shared" si="2"/>
         <v>24184.66</v>
       </c>
     </row>
-    <row r="21" spans="1:25" s="11" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="63"/>
-      <c r="B21" s="10">
+    <row r="21" spans="1:25" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="62"/>
+      <c r="B21" s="9">
         <v>0.15</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="13">
         <v>0</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>0</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="15">
         <v>0</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="I21" s="14">
+      <c r="F21" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I21" s="13">
         <v>2.6683238</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="5">
         <v>24556.603999999999</v>
       </c>
-      <c r="K21" s="16">
+      <c r="K21" s="15">
         <v>21513.025000000001</v>
       </c>
-      <c r="L21" s="14">
+      <c r="L21" s="13">
         <v>2.6472920000000002</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="5">
         <v>25021.037</v>
       </c>
-      <c r="N21" s="16">
+      <c r="N21" s="15">
         <v>22052.945</v>
       </c>
-      <c r="O21" s="14">
+      <c r="O21" s="13">
         <v>5.3257494000000003</v>
       </c>
-      <c r="P21" s="6">
+      <c r="P21" s="5">
         <v>32849.214999999997</v>
       </c>
-      <c r="Q21" s="6">
+      <c r="Q21" s="5">
         <v>27361.634999999998</v>
       </c>
-      <c r="S21" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="W21" s="4" t="str">
+      <c r="S21" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="W21" s="3" t="str">
         <f t="shared" si="0"/>
         <v>7.09</v>
       </c>
-      <c r="X21" s="11" t="str">
+      <c r="X21" s="10" t="str">
         <f t="shared" si="1"/>
         <v>23590.26</v>
       </c>
-      <c r="Y21" s="11" t="str">
+      <c r="Y21" s="10" t="str">
         <f t="shared" si="2"/>
         <v>17444.67</v>
       </c>
     </row>
-    <row r="22" spans="1:25" s="11" customFormat="1" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="64"/>
-      <c r="B22" s="35">
+    <row r="22" spans="1:25" s="10" customFormat="1" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="63"/>
+      <c r="B22" s="34">
         <v>0.2</v>
       </c>
-      <c r="C22" s="36">
+      <c r="C22" s="35">
         <v>0</v>
       </c>
-      <c r="D22" s="37">
+      <c r="D22" s="36">
         <v>0</v>
       </c>
-      <c r="E22" s="38">
+      <c r="E22" s="37">
         <v>0</v>
       </c>
-      <c r="F22" s="43" t="s">
-        <v>169</v>
-      </c>
-      <c r="G22" s="43" t="s">
-        <v>170</v>
-      </c>
-      <c r="H22" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="I22" s="42">
+      <c r="F22" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="G22" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="H22" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="I22" s="41">
         <v>1.6117309</v>
       </c>
-      <c r="J22" s="43">
+      <c r="J22" s="42">
         <v>22016.428</v>
       </c>
-      <c r="K22" s="44">
+      <c r="K22" s="43">
         <v>18847.287</v>
       </c>
-      <c r="L22" s="42">
+      <c r="L22" s="41">
         <v>0.99935865000000002</v>
       </c>
-      <c r="M22" s="43">
+      <c r="M22" s="42">
         <v>22848.58</v>
       </c>
-      <c r="N22" s="44">
+      <c r="N22" s="43">
         <v>19477.548999999999</v>
       </c>
-      <c r="O22" s="42">
+      <c r="O22" s="41">
         <v>1.7523747999999999</v>
       </c>
-      <c r="P22" s="43">
+      <c r="P22" s="42">
         <v>29142.032999999999</v>
       </c>
-      <c r="Q22" s="43">
+      <c r="Q22" s="42">
         <v>23383.73</v>
       </c>
-      <c r="S22" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="W22" s="4" t="str">
+      <c r="S22" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="W22" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2.94</v>
       </c>
-      <c r="X22" s="11" t="str">
+      <c r="X22" s="10" t="str">
         <f t="shared" si="1"/>
         <v>22734.24</v>
       </c>
-      <c r="Y22" s="11" t="str">
+      <c r="Y22" s="10" t="str">
         <f t="shared" si="2"/>
         <v>18157.11</v>
       </c>
@@ -6449,215 +6442,215 @@
   <sheetData>
     <row r="1" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="61"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="60"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="60"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="61"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="60" t="s">
+      <c r="I1" s="60"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="61"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="60" t="s">
-        <v>58</v>
-      </c>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>28</v>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="5">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4">
         <v>2.2599999999999998</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>19416.240000000002</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>16010.54</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H3" s="7">
+      <c r="E3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="6">
         <v>1.0896254999999999</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <v>22165.636999999999</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="6">
         <v>19254.035</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="6">
         <v>0.95195220000000003</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="6">
         <v>22407.453000000001</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="6">
         <v>19182.148000000001</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="6">
         <v>1.2241329999999999</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="6">
         <v>18526.266</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="6">
         <v>15323.695</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
     </row>
     <row r="5" spans="1:16" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
     </row>
     <row r="6" spans="1:16" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>28</v>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="48">
+      <c r="B11" s="47">
         <f>B3</f>
         <v>2.2599999999999998</v>
       </c>
-      <c r="C11" s="48">
+      <c r="C11" s="47">
         <f>C3/1000</f>
         <v>19.416240000000002</v>
       </c>
-      <c r="D11" s="48">
+      <c r="D11" s="47">
         <f>D3/1000</f>
         <v>16.010540000000002</v>
       </c>
@@ -6674,13 +6667,13 @@
       <c r="A12" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="48">
+      <c r="B12" s="47">
         <v>1.88</v>
       </c>
-      <c r="C12" s="48">
+      <c r="C12" s="47">
         <v>22.224810000000002</v>
       </c>
-      <c r="D12" s="48">
+      <c r="D12" s="47">
         <v>17.37959</v>
       </c>
       <c r="E12">
@@ -6696,13 +6689,13 @@
       <c r="A13" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="48">
+      <c r="B13" s="47">
         <v>1.0896254999999999</v>
       </c>
-      <c r="C13" s="48">
+      <c r="C13" s="47">
         <v>22.165637</v>
       </c>
-      <c r="D13" s="48">
+      <c r="D13" s="47">
         <v>19.254034999999998</v>
       </c>
       <c r="E13">
@@ -6718,13 +6711,13 @@
       <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="48">
+      <c r="B14" s="47">
         <v>0.95195220000000003</v>
       </c>
-      <c r="C14" s="48">
+      <c r="C14" s="47">
         <v>22.407453</v>
       </c>
-      <c r="D14" s="48">
+      <c r="D14" s="47">
         <v>19.182148000000002</v>
       </c>
       <c r="E14">
@@ -6738,15 +6731,15 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="48">
+        <v>35</v>
+      </c>
+      <c r="B15" s="47">
         <v>1.2241329999999999</v>
       </c>
-      <c r="C15" s="48">
+      <c r="C15" s="47">
         <v>18.526266</v>
       </c>
-      <c r="D15" s="48">
+      <c r="D15" s="47">
         <v>15.323694999999999</v>
       </c>
       <c r="E15">
@@ -6774,10 +6767,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF44FCAF-9F43-4464-A31C-4C28C63EE283}">
-  <dimension ref="A1:A68"/>
+  <dimension ref="A1:A108"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
+    <sheetView topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="I86" sqref="I86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6789,237 +6782,352 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>42</v>
+      <c r="A6" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>39</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>54</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>51</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>60</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>67</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>68</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>70</v>
+        <v>149</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>42</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
-        <v>73</v>
+      <c r="A63" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>75</v>
+      <c r="A64" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>77</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -7033,7 +7141,7 @@
   <dimension ref="B3:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="B17" sqref="B17:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7046,605 +7154,309 @@
   <sheetData>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="51">
+      <c r="B4" s="50">
         <v>45292</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C4" s="49">
         <v>-2398.9390990000002</v>
       </c>
-      <c r="D4" s="50">
+      <c r="D4" s="49">
         <v>-22000.883786999999</v>
       </c>
-      <c r="E4" s="50">
+      <c r="E4" s="49">
         <v>17203.005588</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="51">
+      <c r="B5" s="50">
         <v>45323</v>
       </c>
-      <c r="C5" s="50">
+      <c r="C5" s="49">
         <v>1719.9713409999999</v>
       </c>
-      <c r="D5" s="50">
+      <c r="D5" s="49">
         <v>-17881.973346999999</v>
       </c>
-      <c r="E5" s="50">
+      <c r="E5" s="49">
         <v>21321.916028</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="51">
+      <c r="B6" s="50">
         <v>45352</v>
       </c>
-      <c r="C6" s="50">
+      <c r="C6" s="49">
         <v>-24684.658734000001</v>
       </c>
-      <c r="D6" s="50">
+      <c r="D6" s="49">
         <v>-44286.603421</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E6" s="49">
         <v>-5082.7140460000001</v>
       </c>
-      <c r="K6" s="49"/>
+      <c r="K6" s="48"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="51">
+      <c r="B7" s="50">
         <v>45383</v>
       </c>
-      <c r="C7" s="50">
+      <c r="C7" s="49">
         <v>-5617.6403300000002</v>
       </c>
-      <c r="D7" s="50">
+      <c r="D7" s="49">
         <v>-25219.585018000002</v>
       </c>
-      <c r="E7" s="50">
+      <c r="E7" s="49">
         <v>13984.304357000001</v>
       </c>
-      <c r="K7" s="49"/>
+      <c r="K7" s="48"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="51">
+      <c r="B8" s="50">
         <v>45413</v>
       </c>
-      <c r="C8" s="50">
+      <c r="C8" s="49">
         <v>4607.3902840000001</v>
       </c>
-      <c r="D8" s="50">
+      <c r="D8" s="49">
         <v>-14994.554403</v>
       </c>
-      <c r="E8" s="50">
+      <c r="E8" s="49">
         <v>24209.334972000001</v>
       </c>
-      <c r="K8" s="49"/>
+      <c r="K8" s="48"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="51">
+      <c r="B9" s="50">
         <v>45444</v>
       </c>
-      <c r="C9" s="50">
+      <c r="C9" s="49">
         <v>-14711.277532</v>
       </c>
-      <c r="D9" s="50">
+      <c r="D9" s="49">
         <v>-34313.222219000003</v>
       </c>
-      <c r="E9" s="50">
+      <c r="E9" s="49">
         <v>4890.6671560000004</v>
       </c>
-      <c r="K9" s="49"/>
+      <c r="K9" s="48"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="51">
+      <c r="B10" s="50">
         <v>45474</v>
       </c>
-      <c r="C10" s="50">
+      <c r="C10" s="49">
         <v>-2135.5036909999999</v>
       </c>
-      <c r="D10" s="50">
+      <c r="D10" s="49">
         <v>-21737.448378000001</v>
       </c>
-      <c r="E10" s="50">
+      <c r="E10" s="49">
         <v>17466.440997000002</v>
       </c>
-      <c r="K10" s="49"/>
+      <c r="K10" s="48"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="51">
+      <c r="B11" s="50">
         <v>45505</v>
       </c>
-      <c r="C11" s="50">
+      <c r="C11" s="49">
         <v>-4308.7420469999997</v>
       </c>
-      <c r="D11" s="50">
+      <c r="D11" s="49">
         <v>-23910.686734999999</v>
       </c>
-      <c r="E11" s="50">
+      <c r="E11" s="49">
         <v>15293.20264</v>
       </c>
-      <c r="K11" s="49"/>
+      <c r="K11" s="48"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="51">
+      <c r="B12" s="50">
         <v>45536</v>
       </c>
-      <c r="C12" s="50">
+      <c r="C12" s="49">
         <v>-9423.3251720000007</v>
       </c>
-      <c r="D12" s="50">
+      <c r="D12" s="49">
         <v>-29025.269859</v>
       </c>
-      <c r="E12" s="50">
+      <c r="E12" s="49">
         <v>10178.619516000001</v>
       </c>
-      <c r="K12" s="49"/>
+      <c r="K12" s="48"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="51">
+      <c r="B13" s="50">
         <v>45566</v>
       </c>
-      <c r="C13" s="50">
+      <c r="C13" s="49">
         <v>-2288.8922689999999</v>
       </c>
-      <c r="D13" s="50">
+      <c r="D13" s="49">
         <v>-21890.836955999999</v>
       </c>
-      <c r="E13" s="50">
+      <c r="E13" s="49">
         <v>17313.052419</v>
       </c>
-      <c r="K13" s="49"/>
+      <c r="K13" s="48"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="51">
+      <c r="B14" s="50">
         <v>45597</v>
       </c>
-      <c r="C14" s="50">
+      <c r="C14" s="49">
         <v>7248.9427729999998</v>
       </c>
-      <c r="D14" s="50">
+      <c r="D14" s="49">
         <v>-12353.001915000001</v>
       </c>
-      <c r="E14" s="50">
+      <c r="E14" s="49">
         <v>26850.887460000002</v>
       </c>
-      <c r="K14" s="49"/>
+      <c r="K14" s="48"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="51">
+      <c r="B15" s="50">
         <v>45627</v>
       </c>
-      <c r="C15" s="50">
+      <c r="C15" s="49">
         <v>-7322.4207070000002</v>
       </c>
-      <c r="D15" s="50">
+      <c r="D15" s="49">
         <v>-26924.365395000001</v>
       </c>
-      <c r="E15" s="50">
+      <c r="E15" s="49">
         <v>12279.52398</v>
       </c>
-      <c r="K15" s="49"/>
+      <c r="K15" s="48"/>
     </row>
     <row r="16" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="49"/>
-      <c r="K16" s="49"/>
-    </row>
-    <row r="17" spans="2:11" s="52" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="71"/>
-      <c r="K17" s="53"/>
-    </row>
-    <row r="18" spans="2:11" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="58">
+      <c r="B16" s="48"/>
+      <c r="K16" s="48"/>
+    </row>
+    <row r="17" spans="2:11" s="51" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="69" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="70"/>
+      <c r="K17" s="52"/>
+    </row>
+    <row r="18" spans="2:11" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="57">
         <v>45292</v>
       </c>
-      <c r="C18" s="59">
-        <f>C4</f>
-        <v>-2398.9390990000002</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="54">
+      <c r="C18" s="58">
+        <v>-8169.7267620000002</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="53">
         <v>45323</v>
       </c>
-      <c r="C19" s="55">
-        <f>C18+C5</f>
-        <v>-678.96775800000023</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="54">
+      <c r="C19" s="54">
+        <v>-4377.5449170000002</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="53">
         <v>45352</v>
       </c>
-      <c r="C20" s="55">
-        <f t="shared" ref="C20:C29" si="0">C19+C6</f>
-        <v>-25363.626491999999</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="54">
+      <c r="C20" s="54">
+        <v>-30349.185131999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="53">
         <v>45383</v>
       </c>
-      <c r="C21" s="55">
-        <f t="shared" si="0"/>
-        <v>-30981.266821999998</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="54">
+      <c r="C21" s="54">
+        <v>-39390.183650999999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="53">
         <v>45413</v>
       </c>
-      <c r="C22" s="55">
-        <f t="shared" si="0"/>
-        <v>-26373.876537999997</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="54">
+      <c r="C22" s="54">
+        <v>-36015.293297999997</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="53">
         <v>45444</v>
       </c>
-      <c r="C23" s="55">
-        <f t="shared" si="0"/>
-        <v>-41085.154069999997</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="54">
+      <c r="C23" s="54">
+        <v>-54750.020230000002</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="53">
         <v>45474</v>
       </c>
-      <c r="C24" s="55">
-        <f t="shared" si="0"/>
-        <v>-43220.657760999995</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="54">
+      <c r="C24" s="54">
+        <v>-60476.677978</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="53">
         <v>45505</v>
       </c>
-      <c r="C25" s="55">
-        <f t="shared" si="0"/>
-        <v>-47529.399807999995</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="54">
+      <c r="C25" s="54">
+        <v>-66560.644039000006</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="53">
         <v>45536</v>
       </c>
-      <c r="C26" s="55">
-        <f t="shared" si="0"/>
-        <v>-56952.724979999999</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="54">
+      <c r="C26" s="54">
+        <v>-79255.195244999995</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="53">
         <v>45566</v>
       </c>
-      <c r="C27" s="55">
-        <f t="shared" si="0"/>
-        <v>-59241.617249000003</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="54">
+      <c r="C27" s="54">
+        <v>-85107.021859999993</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="53">
         <v>45597</v>
       </c>
-      <c r="C28" s="55">
-        <f t="shared" si="0"/>
-        <v>-51992.674476</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="56">
+      <c r="C28" s="54">
+        <v>-80341.965014000001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="55">
         <v>45627</v>
       </c>
-      <c r="C29" s="57">
-        <f t="shared" si="0"/>
-        <v>-59315.095182999998</v>
+      <c r="C29" s="56">
+        <v>-91718.278296000004</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="49"/>
+      <c r="B30" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B17:C17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80FA76F4-5176-4565-B94F-8E91765D6FBD}">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:H20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="25.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="F10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="F11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="F12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="F13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="F14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="F15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="F16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B17">
-        <v>16</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="F17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18">
-        <v>17</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="F18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19">
-        <v>18</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B20">
-        <v>19</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data/MODELS_Evaluation.xlsx
+++ b/data/MODELS_Evaluation.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Data_Projects\MDS\master_thesis\fiscal-balance-forecast\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3197001-B732-4242-83A6-BBADF2B4FCF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833E606C-0320-4674-943E-D0A092263BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1164" yWindow="1008" windowWidth="21600" windowHeight="11232" xr2:uid="{C3E01645-CC42-4FDD-B1C0-083E9BF408D4}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="3" xr2:uid="{C3E01645-CC42-4FDD-B1C0-083E9BF408D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Evaluate_outliers" sheetId="5" r:id="rId1"/>
-    <sheet name="Evaluate_models" sheetId="7" r:id="rId2"/>
-    <sheet name="Planilha1" sheetId="6" r:id="rId3"/>
-    <sheet name="Accumulated results" sheetId="8" r:id="rId4"/>
+    <sheet name="Evaluate_outliers %GDP" sheetId="9" r:id="rId2"/>
+    <sheet name="Evaluate_models" sheetId="7" r:id="rId3"/>
+    <sheet name="Parameters" sheetId="10" r:id="rId4"/>
+    <sheet name="Planilha1" sheetId="6" r:id="rId5"/>
+    <sheet name="Accumulated results" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="450">
   <si>
     <t>RNN</t>
   </si>
@@ -247,79 +249,10 @@
     <t>17379.59</t>
   </si>
   <si>
-    <t>Lower Bound</t>
-  </si>
-  <si>
-    <t>Upper Bound</t>
-  </si>
-  <si>
-    <t>Brazilian monthly RB</t>
-  </si>
-  <si>
     <t>SARIMA (p=5, d=1, q=4, P=2,  D=0, Q=0, m=12)</t>
   </si>
   <si>
     <t>SARIMAX (p=5, d=1, q=4, P=2,  D=0, Q=0, m=12)</t>
-  </si>
-  <si>
-    <t>Model: SARIMAX., File: ../data/data_orig_parameters.csv, Outlier Threshold: nan -&gt;, MAPE: 4.00, RMSE: 90089.25, MAE: 70023.61</t>
-  </si>
-  <si>
-    <t>Model: SARIMAX., File: ../data/data_orig_parameters.csv, Outlier Threshold: 0.05 -&gt;, MAPE: 3.25, RMSE: 77843.47, MAE: 58207.18</t>
-  </si>
-  <si>
-    <t>Model: SARIMAX., File: ../data/data_orig_parameters.csv, Outlier Threshold: 0.1 -&gt;, MAPE: 4.53, RMSE: 45271.07, MAE: 35030.28</t>
-  </si>
-  <si>
-    <t>Model: SARIMAX., File: ../data/data_orig_parameters.csv, Outlier Threshold: 0.15 -&gt;, MAPE: 10.06, RMSE: 28717.24, MAE: 23046.59</t>
-  </si>
-  <si>
-    <t>Model: SARIMAX., File: ../data/data_orig_parameters.csv, Outlier Threshold: 0.2 -&gt;, MAPE: 3.15, RMSE: 27656.73, MAE: 20848.04</t>
-  </si>
-  <si>
-    <t>Model: SARIMAX., File: ../data/data_cleaned_RF.csv, Outlier Threshold: nan -&gt;, MAPE: 1.43, RMSE: 50348.55, MAE: 33085.53</t>
-  </si>
-  <si>
-    <t>Model: SARIMAX., File: ../data/data_cleaned_RF.csv, Outlier Threshold: 0.05 -&gt;, MAPE: 1.32, RMSE: 45320.22, MAE: 30772.38</t>
-  </si>
-  <si>
-    <t>Model: SARIMAX., File: ../data/data_cleaned_RF.csv, Outlier Threshold: 0.1 -&gt;, MAPE: 4.85, RMSE: 34119.23, MAE: 24432.60</t>
-  </si>
-  <si>
-    <t>Model: SARIMAX., File: ../data/data_cleaned_RF.csv, Outlier Threshold: 0.15 -&gt;, MAPE: 4.82, RMSE: 21851.87, MAE: 17226.13</t>
-  </si>
-  <si>
-    <t>Model: SARIMAX., File: ../data/data_cleaned_RF.csv, Outlier Threshold: 0.2 -&gt;, MAPE: 3.07, RMSE: 23133.17, MAE: 18731.05</t>
-  </si>
-  <si>
-    <t>Model: SARIMAX., File: ../data/data_cleaned_LASSO.csv, Outlier Threshold: nan -&gt;, MAPE: 3.04, RMSE: 90064.05, MAE: 60194.47</t>
-  </si>
-  <si>
-    <t>Model: SARIMAX., File: ../data/data_cleaned_LASSO.csv, Outlier Threshold: 0.05 -&gt;, MAPE: 2.87, RMSE: 79826.52, MAE: 55230.30</t>
-  </si>
-  <si>
-    <t>Model: SARIMAX., File: ../data/data_cleaned_LASSO.csv, Outlier Threshold: 0.1 -&gt;, MAPE: 6.96, RMSE: 42450.54, MAE: 31055.29</t>
-  </si>
-  <si>
-    <t>Model: SARIMAX., File: ../data/data_cleaned_LASSO.csv, Outlier Threshold: 0.15 -&gt;, MAPE: 6.25, RMSE: 22271.00, MAE: 16769.87</t>
-  </si>
-  <si>
-    <t>Model: SARIMAX., File: ../data/data_cleaned_LASSO.csv, Outlier Threshold: 0.2 -&gt;, MAPE: 1.70, RMSE: 22172.52, MAE: 15651.17</t>
-  </si>
-  <si>
-    <t>Model: SARIMAX., File: ../data/data_cleaned_RFE.csv, Outlier Threshold: nan -&gt;, MAPE: 1.13, RMSE: 49046.49, MAE: 32049.16</t>
-  </si>
-  <si>
-    <t>Model: SARIMAX., File: ../data/data_cleaned_RFE.csv, Outlier Threshold: 0.05 -&gt;, MAPE: 1.09, RMSE: 44591.83, MAE: 30166.87</t>
-  </si>
-  <si>
-    <t>Model: SARIMAX., File: ../data/data_cleaned_RFE.csv, Outlier Threshold: 0.1 -&gt;, MAPE: 4.79, RMSE: 34600.12, MAE: 24184.66</t>
-  </si>
-  <si>
-    <t>Model: SARIMAX., File: ../data/data_cleaned_RFE.csv, Outlier Threshold: 0.15 -&gt;, MAPE: 7.09, RMSE: 23590.26, MAE: 17444.67</t>
-  </si>
-  <si>
-    <t>Model: SARIMAX., File: ../data/data_cleaned_RFE.csv, Outlier Threshold: 0.2 -&gt;, MAPE: 2.94, RMSE: 22734.24, MAE: 18157.11</t>
   </si>
   <si>
     <t>4.00</t>
@@ -564,6 +497,912 @@
   <si>
     <t>Forecasted Brazilian PB - Cumulative 2024 
 (BRL million)</t>
+  </si>
+  <si>
+    <t>130291.14</t>
+  </si>
+  <si>
+    <t>88128.78</t>
+  </si>
+  <si>
+    <t>70317.93</t>
+  </si>
+  <si>
+    <t>51298.44</t>
+  </si>
+  <si>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>231467.11</t>
+  </si>
+  <si>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>133769.73</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 98472.92</t>
+  </si>
+  <si>
+    <t>0.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 67898.32</t>
+  </si>
+  <si>
+    <t>Model: SARIMAX., File: ../data/data_orig_parameters2.csv, Outlier Threshold: nan -&gt;, MAPE: 2.70, RMSE: 252636.48, MAE: 191407.71</t>
+  </si>
+  <si>
+    <t>Model: SARIMAX., File: ../data/data_orig_parameters2.csv, Outlier Threshold: 0.05 -&gt;, MAPE: 2.77, RMSE: 158884.92, MAE: 135034.87</t>
+  </si>
+  <si>
+    <t>Model: SARIMAX., File: ../data/data_orig_parameters2.csv, Outlier Threshold: 0.1 -&gt;, MAPE: 3.50, RMSE: 153897.33, MAE: 127971.09</t>
+  </si>
+  <si>
+    <t>Model: SARIMAX., File: ../data/data_orig_parameters2.csv, Outlier Threshold: 0.15 -&gt;, MAPE: 2.18, RMSE: 110461.72, MAE: 89326.54</t>
+  </si>
+  <si>
+    <t>Model: SARIMAX., File: ../data/data_orig_parameters2.csv, Outlier Threshold: 0.2 -&gt;, MAPE: 2.70, RMSE: 123088.58, MAE: 100251.18</t>
+  </si>
+  <si>
+    <t>Model: SARIMAX., File: ../data/data_cleaned_RF2.csv, Outlier Threshold: nan -&gt;, MAPE: 6.50, RMSE: 370146.59, MAE: 310140.24</t>
+  </si>
+  <si>
+    <t>Model: SARIMAX., File: ../data/data_cleaned_RF2.csv, Outlier Threshold: 0.05 -&gt;, MAPE: 6.52, RMSE: 336978.12, MAE: 268404.86</t>
+  </si>
+  <si>
+    <t>Model: SARIMAX., File: ../data/data_cleaned_RF2.csv, Outlier Threshold: 0.1 -&gt;, MAPE: 7.01, RMSE: 351759.15, MAE: 284936.85</t>
+  </si>
+  <si>
+    <t>Model: SARIMAX., File: ../data/data_cleaned_RF2.csv, Outlier Threshold: 0.15 -&gt;, MAPE: 4.03, RMSE: 194574.17, MAE: 160279.74</t>
+  </si>
+  <si>
+    <t>Model: SARIMAX., File: ../data/data_cleaned_RF2.csv, Outlier Threshold: 0.2 -&gt;, MAPE: 2.47, RMSE: 118945.74, MAE: 95266.79</t>
+  </si>
+  <si>
+    <t>Model: SARIMAX., File: ../data/data_cleaned_LASSO2.csv, Outlier Threshold: nan -&gt;, MAPE: 1.53, RMSE: 155702.93, MAE: 99590.02</t>
+  </si>
+  <si>
+    <t>Model: SARIMAX., File: ../data/data_cleaned_LASSO2.csv, Outlier Threshold: 0.05 -&gt;, MAPE: 1.46, RMSE: 80573.92, MAE: 59801.29</t>
+  </si>
+  <si>
+    <t>Model: SARIMAX., File: ../data/data_cleaned_LASSO2.csv, Outlier Threshold: 0.1 -&gt;, MAPE: 1.50, RMSE: 75943.02, MAE: 62258.65</t>
+  </si>
+  <si>
+    <t>Model: SARIMAX., File: ../data/data_cleaned_LASSO2.csv, Outlier Threshold: 0.15 -&gt;, MAPE: 2.39, RMSE: 112468.70, MAE: 88709.74</t>
+  </si>
+  <si>
+    <t>Model: SARIMAX., File: ../data/data_cleaned_LASSO2.csv, Outlier Threshold: 0.2 -&gt;, MAPE: 2.84, RMSE: 130505.62, MAE: 107692.43</t>
+  </si>
+  <si>
+    <t>Model: SARIMAX., File: ../data/data_cleaned_RFE2.csv, Outlier Threshold: nan -&gt;, MAPE: 1.60, RMSE: 208268.23, MAE: 138512.13</t>
+  </si>
+  <si>
+    <t>Model: SARIMAX., File: ../data/data_cleaned_RFE2.csv, Outlier Threshold: 0.05 -&gt;, MAPE: 1.51, RMSE: 117163.78, MAE: 88315.61</t>
+  </si>
+  <si>
+    <t>Model: SARIMAX., File: ../data/data_cleaned_RFE2.csv, Outlier Threshold: 0.1 -&gt;, MAPE: 1.99, RMSE: 109333.74, MAE: 81264.87</t>
+  </si>
+  <si>
+    <t>Model: SARIMAX., File: ../data/data_cleaned_RFE2.csv, Outlier Threshold: 0.15 -&gt;, MAPE: 3.12, RMSE: 153616.30, MAE: 126796.06</t>
+  </si>
+  <si>
+    <t>Model: SARIMAX., File: ../data/data_cleaned_RFE2.csv, Outlier Threshold: 0.2 -&gt;, MAPE: 1.99, RMSE: 94312.02, MAE: 75227.20</t>
+  </si>
+  <si>
+    <t>2.70</t>
+  </si>
+  <si>
+    <t>252636.48</t>
+  </si>
+  <si>
+    <t>191407.71</t>
+  </si>
+  <si>
+    <t>2.77</t>
+  </si>
+  <si>
+    <t>158884.92</t>
+  </si>
+  <si>
+    <t>135034.87</t>
+  </si>
+  <si>
+    <t>3.50</t>
+  </si>
+  <si>
+    <t>153897.33</t>
+  </si>
+  <si>
+    <t>127971.09</t>
+  </si>
+  <si>
+    <t>2.18</t>
+  </si>
+  <si>
+    <t>110461.72</t>
+  </si>
+  <si>
+    <t>89326.54</t>
+  </si>
+  <si>
+    <t>123088.58</t>
+  </si>
+  <si>
+    <t>100251.18</t>
+  </si>
+  <si>
+    <t>6.50</t>
+  </si>
+  <si>
+    <t>370146.59</t>
+  </si>
+  <si>
+    <t>310140.24</t>
+  </si>
+  <si>
+    <t>6.52</t>
+  </si>
+  <si>
+    <t>336978.12</t>
+  </si>
+  <si>
+    <t>268404.86</t>
+  </si>
+  <si>
+    <t>7.01</t>
+  </si>
+  <si>
+    <t>351759.15</t>
+  </si>
+  <si>
+    <t>284936.85</t>
+  </si>
+  <si>
+    <t>4.03</t>
+  </si>
+  <si>
+    <t>194574.17</t>
+  </si>
+  <si>
+    <t>160279.74</t>
+  </si>
+  <si>
+    <t>2.47</t>
+  </si>
+  <si>
+    <t>118945.74</t>
+  </si>
+  <si>
+    <t>95266.79</t>
+  </si>
+  <si>
+    <t>1.53</t>
+  </si>
+  <si>
+    <t>155702.93</t>
+  </si>
+  <si>
+    <t>99590.02</t>
+  </si>
+  <si>
+    <t>1.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 80573.92</t>
+  </si>
+  <si>
+    <t>59801.29</t>
+  </si>
+  <si>
+    <t>1.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 75943.02</t>
+  </si>
+  <si>
+    <t>62258.65</t>
+  </si>
+  <si>
+    <t>2.39</t>
+  </si>
+  <si>
+    <t>112468.70</t>
+  </si>
+  <si>
+    <t>88709.74</t>
+  </si>
+  <si>
+    <t>2.84</t>
+  </si>
+  <si>
+    <t>130505.62</t>
+  </si>
+  <si>
+    <t>107692.43</t>
+  </si>
+  <si>
+    <t>1.60</t>
+  </si>
+  <si>
+    <t>208268.23</t>
+  </si>
+  <si>
+    <t>138512.13</t>
+  </si>
+  <si>
+    <t>1.51</t>
+  </si>
+  <si>
+    <t>117163.78</t>
+  </si>
+  <si>
+    <t>88315.61</t>
+  </si>
+  <si>
+    <t>1.99</t>
+  </si>
+  <si>
+    <t>109333.74</t>
+  </si>
+  <si>
+    <t>81264.87</t>
+  </si>
+  <si>
+    <t>3.12</t>
+  </si>
+  <si>
+    <t>153616.30</t>
+  </si>
+  <si>
+    <t>126796.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 94312.02</t>
+  </si>
+  <si>
+    <t>75227.20</t>
+  </si>
+  <si>
+    <t>SARIMAX (p=1, d=1, q=2, P=1,  D=0, Q=0, m=12)</t>
+  </si>
+  <si>
+    <t>SARIMA (p=1, d=1, q=2, P=1,  D=0, Q=0, m=12)</t>
+  </si>
+  <si>
+    <t>pos_MAPE</t>
+  </si>
+  <si>
+    <t>Best Score: 0.007344531361013651</t>
+  </si>
+  <si>
+    <t>GRU_ANNUAL_PCT_GDP_ORI_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best Score: 0.007679900154471397 Best Parameters: {'batch_size': 32, 'dropout_rate': 0.1, 'epochs': 50, 'gru_units': {1: 200, 2: 200, 3: 100}, 'learning_rate': 0.001, 'n_layers': 2, 'optimizer': 'rmsprop'} </t>
+  </si>
+  <si>
+    <t>GRU_ANNUAL_PCT_GDP_RF_10</t>
+  </si>
+  <si>
+    <t>RNN_ANNUAL_PCT_GDP_ORI_10</t>
+  </si>
+  <si>
+    <t>Best Score: 0.005673547275364399</t>
+  </si>
+  <si>
+    <t>Best Parameters: {'batch_size': 32, 'dropout_rate': 0.3, 'epochs': 100, 'learning_rate': 0.001, 'n_layers': 1, 'optimizer': 'rmsprop', 'rnn_units': {1: 200, 2: 200, 3: 100}}</t>
+  </si>
+  <si>
+    <t>RNN_ANNUAL_PCT_GDP_RF_10</t>
+  </si>
+  <si>
+    <t>RNN_ANNUAL_PCT_GDP_LASSO_10</t>
+  </si>
+  <si>
+    <t>GRU_ANNUAL_PCT_GDP_Lasso_10</t>
+  </si>
+  <si>
+    <t>GRU_ANNUAL_PCT_GDP_RFE_10</t>
+  </si>
+  <si>
+    <t>Best Score: 0.008439351804554462</t>
+  </si>
+  <si>
+    <t>Best Parameters: {'batch_size': 64, 'dropout_rate': 0.3, 'epochs': 75, 'gru_units': {1: 200, 2: 200, 3: 100}, 'learning_rate': 0.0001, 'n_layers': 2, 'optimizer': 'adam'}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.53</t>
+  </si>
+  <si>
+    <t>86617.89</t>
+  </si>
+  <si>
+    <t>70170.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.19</t>
+  </si>
+  <si>
+    <t>84515.48</t>
+  </si>
+  <si>
+    <t>67134.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.4</t>
+  </si>
+  <si>
+    <t>84785.54</t>
+  </si>
+  <si>
+    <t>66511.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.34</t>
+  </si>
+  <si>
+    <t>83590.12</t>
+  </si>
+  <si>
+    <t>65206.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.7</t>
+  </si>
+  <si>
+    <t>84360.13</t>
+  </si>
+  <si>
+    <t>70262.2</t>
+  </si>
+  <si>
+    <t>Best Score: 0.007078385446220636</t>
+  </si>
+  <si>
+    <t>Best Parameters: {'batch_size': 64, 'dropout_rate': 0.1, 'epochs': 75, 'gru_units': {1: 10, 2: 10, 3: 5}, 'learning_rate': 0.001, 'n_layers': 2, 'optimizer': 'rmsprop'}</t>
+  </si>
+  <si>
+    <t>LSTM_ANNUAL_PCT_GDP_ORI_10</t>
+  </si>
+  <si>
+    <t>LSTM_ANNUAL_PCT_GDP_RF_10</t>
+  </si>
+  <si>
+    <t>LSTM_ANNUAL_PCT_GDP_LASSO_10</t>
+  </si>
+  <si>
+    <t>LSTM_ANNUAL_PCT_GDP_RFE_10</t>
+  </si>
+  <si>
+    <t>Best Score: 0.006782266777008772</t>
+  </si>
+  <si>
+    <t>Best Parameters: {'batch_size': 128, 'dropout_rate': 0.1, 'epochs': 50, 'learning_rate': 0.01, 'n_layers': 1, 'optimizer': 'adam', 'rnn_units': {1: 400, 2: 300, 3: 100}}</t>
+  </si>
+  <si>
+    <t>Best Score: 0.007410488091409206</t>
+  </si>
+  <si>
+    <t>Best Parameters: {'batch_size': 64, 'dropout_rate': 0.1, 'epochs': 50, 'learning_rate': 0.0001, 'lstm_units': {1: 50, 2: 30, 3: 15}, 'n_layers': 1, 'optimizer': 'adam'}</t>
+  </si>
+  <si>
+    <t>RNN_ANNUAL_PCT_GDP_RFE_10</t>
+  </si>
+  <si>
+    <t>Best Parameters: {'batch_size': 32, 'dropout_rate': 0.2, 'epochs': 100, 'gru_units': {1: 100, 2: 100, 3: 50}, 'learning_rate': 0.001, 'n_layers': 2, 'optimizer': 'adam'}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.58</t>
+  </si>
+  <si>
+    <t>142552.86</t>
+  </si>
+  <si>
+    <t>116850.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.56</t>
+  </si>
+  <si>
+    <t>163219.35</t>
+  </si>
+  <si>
+    <t>126816.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.89</t>
+  </si>
+  <si>
+    <t>194284.27</t>
+  </si>
+  <si>
+    <t>161166.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.72</t>
+  </si>
+  <si>
+    <t>132172.15</t>
+  </si>
+  <si>
+    <t>102761.89</t>
+  </si>
+  <si>
+    <t>98778.46</t>
+  </si>
+  <si>
+    <t>72748.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.25</t>
+  </si>
+  <si>
+    <t>101958.05</t>
+  </si>
+  <si>
+    <t>87048.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.97</t>
+  </si>
+  <si>
+    <t>82700.9</t>
+  </si>
+  <si>
+    <t>59267.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.03</t>
+  </si>
+  <si>
+    <t>77007.87</t>
+  </si>
+  <si>
+    <t>64097.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.0</t>
+  </si>
+  <si>
+    <t>85107.81</t>
+  </si>
+  <si>
+    <t>59278.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.66</t>
+  </si>
+  <si>
+    <t>108587.85</t>
+  </si>
+  <si>
+    <t>76744.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.36</t>
+  </si>
+  <si>
+    <t>156772.9</t>
+  </si>
+  <si>
+    <t>126774.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.51</t>
+  </si>
+  <si>
+    <t>160455.75</t>
+  </si>
+  <si>
+    <t>135569.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.78</t>
+  </si>
+  <si>
+    <t>94649.89</t>
+  </si>
+  <si>
+    <t>75128.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.51</t>
+  </si>
+  <si>
+    <t>76805.98</t>
+  </si>
+  <si>
+    <t>58485.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.29</t>
+  </si>
+  <si>
+    <t>85279.38</t>
+  </si>
+  <si>
+    <t>61675.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.84</t>
+  </si>
+  <si>
+    <t>102524.7</t>
+  </si>
+  <si>
+    <t>81166.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.04</t>
+  </si>
+  <si>
+    <t>111199.52</t>
+  </si>
+  <si>
+    <t>92365.15</t>
+  </si>
+  <si>
+    <t>109033.96</t>
+  </si>
+  <si>
+    <t>93244.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.42</t>
+  </si>
+  <si>
+    <t>78110.44</t>
+  </si>
+  <si>
+    <t>62071.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.43</t>
+  </si>
+  <si>
+    <t>82340.67</t>
+  </si>
+  <si>
+    <t>67022.15</t>
+  </si>
+  <si>
+    <t>79036.27</t>
+  </si>
+  <si>
+    <t>64255.35</t>
+  </si>
+  <si>
+    <t>86489.78</t>
+  </si>
+  <si>
+    <t>71907.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.22</t>
+  </si>
+  <si>
+    <t>93929.16</t>
+  </si>
+  <si>
+    <t>77867.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.62</t>
+  </si>
+  <si>
+    <t>107395.87</t>
+  </si>
+  <si>
+    <t>92529.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.67</t>
+  </si>
+  <si>
+    <t>118515.1</t>
+  </si>
+  <si>
+    <t>104870.17</t>
+  </si>
+  <si>
+    <t>136129.69</t>
+  </si>
+  <si>
+    <t>122761.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.68</t>
+  </si>
+  <si>
+    <t>135729.72</t>
+  </si>
+  <si>
+    <t>123345.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.48</t>
+  </si>
+  <si>
+    <t>126469.84</t>
+  </si>
+  <si>
+    <t>111637.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.72</t>
+  </si>
+  <si>
+    <t>83951.28</t>
+  </si>
+  <si>
+    <t>72717.44</t>
+  </si>
+  <si>
+    <t>93058.37</t>
+  </si>
+  <si>
+    <t>79258.09</t>
+  </si>
+  <si>
+    <t>173809.46</t>
+  </si>
+  <si>
+    <t>158056.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.08</t>
+  </si>
+  <si>
+    <t>167580.31</t>
+  </si>
+  <si>
+    <t>153003.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.65</t>
+  </si>
+  <si>
+    <t>173698.94</t>
+  </si>
+  <si>
+    <t>145263.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.16</t>
+  </si>
+  <si>
+    <t>81468.11</t>
+  </si>
+  <si>
+    <t>68495.32</t>
+  </si>
+  <si>
+    <t>100270.99</t>
+  </si>
+  <si>
+    <t>88572.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.53</t>
+  </si>
+  <si>
+    <t>345667.41</t>
+  </si>
+  <si>
+    <t>312602.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.5</t>
+  </si>
+  <si>
+    <t>342984.08</t>
+  </si>
+  <si>
+    <t>313150.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.69</t>
+  </si>
+  <si>
+    <t>199166.35</t>
+  </si>
+  <si>
+    <t>158053.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.15</t>
+  </si>
+  <si>
+    <t>100647.95</t>
+  </si>
+  <si>
+    <t>85937.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.94</t>
+  </si>
+  <si>
+    <t>91686.79</t>
+  </si>
+  <si>
+    <t>79198.53</t>
+  </si>
+  <si>
+    <t>Best Score: 0.00812191516160965</t>
+  </si>
+  <si>
+    <t>Best Parameters: {'batch_size': 64, 'dropout_rate': 0.1, 'epochs': 50, 'learning_rate': 0.001, 'lstm_units': {1: 200, 2: 200, 3: 100}, 'n_layers': 1, 'optimizer': 'rmsprop'}</t>
+  </si>
+  <si>
+    <t>Best Score: 0.007309049367904663</t>
+  </si>
+  <si>
+    <t>Best Parameters: {'batch_size': 32, 'dropout_rate': 0.2, 'epochs': 50, 'learning_rate': 0.0001, 'lstm_units': {1: 10, 2: 10, 3: 5}, 'n_layers': 1, 'optimizer': 'rmsprop'}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.17</t>
+  </si>
+  <si>
+    <t>70663.65</t>
+  </si>
+  <si>
+    <t>56161.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.81</t>
+  </si>
+  <si>
+    <t>84282.73</t>
+  </si>
+  <si>
+    <t>49766.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.21</t>
+  </si>
+  <si>
+    <t>103013.81</t>
+  </si>
+  <si>
+    <t>66379.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.62</t>
+  </si>
+  <si>
+    <t>117387.82</t>
+  </si>
+  <si>
+    <t>80042.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.13</t>
+  </si>
+  <si>
+    <t>77313.01</t>
+  </si>
+  <si>
+    <t>65272.69</t>
+  </si>
+  <si>
+    <t>Best Score: 0.007576179690659046</t>
+  </si>
+  <si>
+    <t>Best Parameters: {'batch_size': 32, 'dropout_rate': 0.3, 'epochs': 20, 'learning_rate': 0.0001, 'lstm_units': {1: 100, 2: 100, 3: 50}, 'n_layers': 1, 'optimizer': 'rmsprop'}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.56</t>
+  </si>
+  <si>
+    <t>172396.42</t>
+  </si>
+  <si>
+    <t>152987.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.18</t>
+  </si>
+  <si>
+    <t>185878.25</t>
+  </si>
+  <si>
+    <t>167649.47</t>
+  </si>
+  <si>
+    <t>121128.8</t>
+  </si>
+  <si>
+    <t>104761.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.64</t>
+  </si>
+  <si>
+    <t>113792.95</t>
+  </si>
+  <si>
+    <t>99385.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.3</t>
+  </si>
+  <si>
+    <t>100527.55</t>
+  </si>
+  <si>
+    <t>86005.27</t>
+  </si>
+  <si>
+    <t>Best Score: 0.00729789724573493 Best Parameters: {'batch_size': 32, 'dropout_rate': 0.2, 'epochs': 100, 'learning_rate': 0.01, 'n_layers': 3, 'optimizer': 'adam', 'rnn_units': {1: 10, 2: 10, 3: 5}}</t>
+  </si>
+  <si>
+    <t>File: ../data/data_orig_parameters2.csv, Outlier Threshold: nan -&gt; Errors: {'MAPE': 1.24, 'RMSE': 69688.16, 'MAE': 58357.49</t>
+  </si>
+  <si>
+    <t>File: ../data/data_orig_parameters2.csv, Outlier Threshold: 0.05 -&gt; Errors: {'MAPE': 1.29, 'RMSE': 72365.9, 'MAE': 60839.27</t>
+  </si>
+  <si>
+    <t>File: ../data/data_orig_parameters2.csv, Outlier Threshold: 0.1 -&gt; Errors: {'MAPE': 1.35, 'RMSE': 70132.99, 'MAE': 59135.37</t>
+  </si>
+  <si>
+    <t>File: ../data/data_orig_parameters2.csv, Outlier Threshold: 0.15 -&gt; Errors: {'MAPE': 1.7, 'RMSE': 83592.85, 'MAE': 72401.38</t>
+  </si>
+  <si>
+    <t>File: ../data/data_orig_parameters2.csv, Outlier Threshold: 0.2 -&gt; Errors: {'MAPE': 1.68, 'RMSE': 89026.67, 'MAE': 76453.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.24</t>
+  </si>
+  <si>
+    <t>69688.16</t>
+  </si>
+  <si>
+    <t>58357.49</t>
+  </si>
+  <si>
+    <t>72365.9</t>
+  </si>
+  <si>
+    <t>60839.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.35</t>
+  </si>
+  <si>
+    <t>70132.99</t>
+  </si>
+  <si>
+    <t>59135.37</t>
+  </si>
+  <si>
+    <t>83592.85</t>
+  </si>
+  <si>
+    <t>72401.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.68</t>
+  </si>
+  <si>
+    <t>89026.67</t>
+  </si>
+  <si>
+    <t>76453.6</t>
   </si>
 </sst>
 </file>
@@ -612,12 +1451,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="24">
@@ -898,7 +1743,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1036,8 +1881,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1061,6 +1904,112 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4558,8 +5507,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4161882" y="2844165"/>
-          <a:ext cx="7979227" cy="3445601"/>
+          <a:off x="4163787" y="2849880"/>
+          <a:ext cx="8002087" cy="3411311"/>
           <a:chOff x="4059012" y="2828925"/>
           <a:chExt cx="7798252" cy="3582761"/>
         </a:xfrm>
@@ -4935,10 +5884,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF5761E5-25FB-403B-90E9-179194B7FFD5}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:Z22"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17:H17"/>
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4952,46 +5901,44 @@
     <col min="13" max="14" width="10.44140625" style="8" customWidth="1"/>
     <col min="15" max="15" width="7.88671875" style="8" customWidth="1"/>
     <col min="16" max="17" width="10.44140625" style="8" customWidth="1"/>
-    <col min="23" max="23" width="9.88671875" customWidth="1"/>
-    <col min="24" max="24" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="60"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="59" t="s">
+      <c r="C1" s="93" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="94"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="93" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="94"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="60"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="59" t="s">
+      <c r="J1" s="94"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="60"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="59" t="s">
+      <c r="M1" s="94"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-    </row>
-    <row r="2" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="68"/>
-      <c r="B2" s="66"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+    </row>
+    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="102"/>
+      <c r="B2" s="100"/>
       <c r="C2" s="21" t="s">
         <v>4</v>
       </c>
@@ -5037,27 +5984,9 @@
       <c r="Q2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="U2" t="s">
-        <v>59</v>
-      </c>
-      <c r="V2" t="s">
-        <v>58</v>
-      </c>
-      <c r="W2" t="s">
-        <v>4</v>
-      </c>
-      <c r="X2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="62" t="s">
+    </row>
+    <row r="3" spans="1:17" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="96" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="16">
@@ -5073,13 +6002,13 @@
         <v>34045.0198727717</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="I3" s="17">
         <v>1.2503922000000001</v>
@@ -5108,40 +6037,9 @@
       <c r="Q3" s="18">
         <v>43228.89</v>
       </c>
-      <c r="S3" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="T3" s="10">
-        <f>SEARCH("RMSE:",S3,1)</f>
-        <v>97</v>
-      </c>
-      <c r="U3" s="10">
-        <f>SEARCH("MAE:",S3,1)</f>
-        <v>113</v>
-      </c>
-      <c r="V3" s="10">
-        <f>SEARCH("MAPE:",S3,1)</f>
-        <v>85</v>
-      </c>
-      <c r="W3" s="3" t="str">
-        <f>RIGHT(LEFT(S3,SEARCH("RMSE:",S3,1)-3),4)</f>
-        <v>4.00</v>
-      </c>
-      <c r="X3" s="10" t="str">
-        <f>RIGHT(LEFT(S3,SEARCH("MAE:",S3,1)-3),8)</f>
-        <v>90089.25</v>
-      </c>
-      <c r="Y3" s="10" t="str">
-        <f>RIGHT(S3,LEN(S3)-SEARCH("MAE:",S3,1)-4)</f>
-        <v>70023.61</v>
-      </c>
-      <c r="Z3" s="10" t="e">
-        <f>RIGHT(V3,LEN(V3)-SEARCH("MAE:",V3,1)-4)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="62"/>
+    </row>
+    <row r="4" spans="1:17" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="96"/>
       <c r="B4" s="9">
         <v>0.05</v>
       </c>
@@ -5155,13 +6053,13 @@
         <v>30807.03</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="I4" s="12">
         <v>1.2527347</v>
@@ -5190,24 +6088,9 @@
       <c r="Q4" s="11">
         <v>42295.43</v>
       </c>
-      <c r="S4" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="W4" s="3" t="str">
-        <f t="shared" ref="W4:W22" si="0">RIGHT(LEFT(S4,SEARCH("RMSE:",S4,1)-3),4)</f>
-        <v>3.25</v>
-      </c>
-      <c r="X4" s="10" t="str">
-        <f t="shared" ref="X4:X22" si="1">RIGHT(LEFT(S4,SEARCH("MAE:",S4,1)-3),8)</f>
-        <v>77843.47</v>
-      </c>
-      <c r="Y4" s="10" t="str">
-        <f t="shared" ref="Y4:Y22" si="2">RIGHT(S4,LEN(S4)-SEARCH("MAE:",S4,1)-4)</f>
-        <v>58207.18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="62"/>
+    </row>
+    <row r="5" spans="1:17" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="96"/>
       <c r="B5" s="9">
         <v>0.1</v>
       </c>
@@ -5221,13 +6104,13 @@
         <v>18193.53</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="I5" s="12">
         <v>5.3872309999999999</v>
@@ -5256,24 +6139,9 @@
       <c r="Q5" s="11">
         <v>27364.518</v>
       </c>
-      <c r="S5" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="W5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>4.53</v>
-      </c>
-      <c r="X5" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>45271.07</v>
-      </c>
-      <c r="Y5" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>35030.28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="62"/>
+    </row>
+    <row r="6" spans="1:17" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="96"/>
       <c r="B6" s="9">
         <v>0.15</v>
       </c>
@@ -5290,10 +6158,10 @@
         <v>10.06</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="I6" s="12">
         <v>1.2080169000000001</v>
@@ -5322,24 +6190,9 @@
       <c r="Q6" s="11">
         <v>21297.418000000001</v>
       </c>
-      <c r="S6" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="W6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0.06</v>
-      </c>
-      <c r="X6" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>28717.24</v>
-      </c>
-      <c r="Y6" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>23046.59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" s="10" customFormat="1" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="62"/>
+    </row>
+    <row r="7" spans="1:17" s="10" customFormat="1" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="96"/>
       <c r="B7" s="23">
         <v>0.2</v>
       </c>
@@ -5353,13 +6206,13 @@
         <v>16010.54</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="I7" s="24">
         <v>1.1386377000000001</v>
@@ -5388,24 +6241,9 @@
       <c r="Q7" s="25">
         <v>19097.261999999999</v>
       </c>
-      <c r="S7" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="W7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>3.15</v>
-      </c>
-      <c r="X7" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>27656.73</v>
-      </c>
-      <c r="Y7" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>20848.04</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="61" t="s">
+    </row>
+    <row r="8" spans="1:17" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="95" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="30">
@@ -5424,10 +6262,10 @@
         <v>61</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="I8" s="31">
         <v>1.5047504</v>
@@ -5456,24 +6294,9 @@
       <c r="Q8" s="32">
         <v>41928.559999999998</v>
       </c>
-      <c r="S8" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="W8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>1.43</v>
-      </c>
-      <c r="X8" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>50348.55</v>
-      </c>
-      <c r="Y8" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>33085.53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="62"/>
+    </row>
+    <row r="9" spans="1:17" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="96"/>
       <c r="B9" s="9">
         <v>0.05</v>
       </c>
@@ -5487,13 +6310,13 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="I9" s="13">
         <v>1.2297378000000001</v>
@@ -5522,24 +6345,9 @@
       <c r="Q9" s="5">
         <v>39486.425999999999</v>
       </c>
-      <c r="S9" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="W9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>1.32</v>
-      </c>
-      <c r="X9" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>45320.22</v>
-      </c>
-      <c r="Y9" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>30772.38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="62"/>
+    </row>
+    <row r="10" spans="1:17" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="96"/>
       <c r="B10" s="9">
         <v>0.1</v>
       </c>
@@ -5553,13 +6361,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="I10" s="13">
         <v>11.221829</v>
@@ -5588,24 +6396,9 @@
       <c r="Q10" s="5">
         <v>32323.474999999999</v>
       </c>
-      <c r="S10" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="W10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>4.85</v>
-      </c>
-      <c r="X10" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>34119.23</v>
-      </c>
-      <c r="Y10" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>24432.60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="62"/>
+    </row>
+    <row r="11" spans="1:17" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="96"/>
       <c r="B11" s="9">
         <v>0.15</v>
       </c>
@@ -5619,13 +6412,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="I11" s="13">
         <v>11.677142999999999</v>
@@ -5654,24 +6447,9 @@
       <c r="Q11" s="5">
         <v>24749.831999999999</v>
       </c>
-      <c r="S11" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="W11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>4.82</v>
-      </c>
-      <c r="X11" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>21851.87</v>
-      </c>
-      <c r="Y11" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>17226.13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" s="10" customFormat="1" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="63"/>
+    </row>
+    <row r="12" spans="1:17" s="10" customFormat="1" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="97"/>
       <c r="B12" s="34">
         <v>0.2</v>
       </c>
@@ -5685,13 +6463,13 @@
         <v>0</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="H12" s="42" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="I12" s="41">
         <v>2.1279154</v>
@@ -5720,24 +6498,9 @@
       <c r="Q12" s="42">
         <v>20842.898000000001</v>
       </c>
-      <c r="S12" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="W12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>3.07</v>
-      </c>
-      <c r="X12" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>23133.17</v>
-      </c>
-      <c r="Y12" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>18731.05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="62" t="s">
+    </row>
+    <row r="13" spans="1:17" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="96" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="16">
@@ -5753,13 +6516,13 @@
         <v>0</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="I13" s="27">
         <v>1.1452293</v>
@@ -5788,24 +6551,9 @@
       <c r="Q13" s="28">
         <v>37868.413999999997</v>
       </c>
-      <c r="S13" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="W13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>3.04</v>
-      </c>
-      <c r="X13" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>90064.05</v>
-      </c>
-      <c r="Y13" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>60194.47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="62"/>
+    </row>
+    <row r="14" spans="1:17" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="96"/>
       <c r="B14" s="9">
         <v>0.05</v>
       </c>
@@ -5819,13 +6567,13 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="I14" s="13">
         <v>1.0494342000000001</v>
@@ -5854,24 +6602,9 @@
       <c r="Q14" s="5">
         <v>35612.805</v>
       </c>
-      <c r="S14" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="W14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>2.87</v>
-      </c>
-      <c r="X14" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>79826.52</v>
-      </c>
-      <c r="Y14" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>55230.30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="62"/>
+    </row>
+    <row r="15" spans="1:17" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="96"/>
       <c r="B15" s="9">
         <v>0.1</v>
       </c>
@@ -5885,13 +6618,13 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="I15" s="13">
         <v>2.8799771999999999</v>
@@ -5920,24 +6653,9 @@
       <c r="Q15" s="5">
         <v>20804.95</v>
       </c>
-      <c r="S15" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="W15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>6.96</v>
-      </c>
-      <c r="X15" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>42450.54</v>
-      </c>
-      <c r="Y15" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>31055.29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="62"/>
+    </row>
+    <row r="16" spans="1:17" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="96"/>
       <c r="B16" s="9">
         <v>0.15</v>
       </c>
@@ -5951,13 +6669,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="I16" s="13">
         <v>2.6272669999999998</v>
@@ -5986,24 +6704,9 @@
       <c r="Q16" s="5">
         <v>19591.241999999998</v>
       </c>
-      <c r="S16" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="W16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>6.25</v>
-      </c>
-      <c r="X16" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>22271.00</v>
-      </c>
-      <c r="Y16" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>16769.87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" s="10" customFormat="1" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="62"/>
+    </row>
+    <row r="17" spans="1:17" s="10" customFormat="1" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="96"/>
       <c r="B17" s="23">
         <v>0.2</v>
       </c>
@@ -6017,13 +6720,13 @@
         <v>0</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="G17" s="45" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="H17" s="45" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="I17" s="44">
         <v>1.0896254999999999</v>
@@ -6052,24 +6755,9 @@
       <c r="Q17" s="45">
         <v>15323.695</v>
       </c>
-      <c r="S17" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="W17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>1.70</v>
-      </c>
-      <c r="X17" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>22172.52</v>
-      </c>
-      <c r="Y17" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>15651.17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="61" t="s">
+    </row>
+    <row r="18" spans="1:17" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="95" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="30">
@@ -6085,13 +6773,13 @@
         <v>0</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="G18" s="32" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="H18" s="32" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="I18" s="31">
         <v>1.0293546</v>
@@ -6120,24 +6808,9 @@
       <c r="Q18" s="32">
         <v>35826.004000000001</v>
       </c>
-      <c r="S18" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="W18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>1.13</v>
-      </c>
-      <c r="X18" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>49046.49</v>
-      </c>
-      <c r="Y18" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>32049.16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="62"/>
+    </row>
+    <row r="19" spans="1:17" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="96"/>
       <c r="B19" s="9">
         <v>0.05</v>
       </c>
@@ -6151,13 +6824,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="I19" s="13">
         <v>1.0866214999999999</v>
@@ -6186,24 +6859,9 @@
       <c r="Q19" s="5">
         <v>36292.660000000003</v>
       </c>
-      <c r="S19" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="W19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>1.09</v>
-      </c>
-      <c r="X19" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>44591.83</v>
-      </c>
-      <c r="Y19" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>30166.87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="62"/>
+    </row>
+    <row r="20" spans="1:17" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="96"/>
       <c r="B20" s="9">
         <v>0.1</v>
       </c>
@@ -6217,13 +6875,13 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="I20" s="13">
         <v>2.5609815</v>
@@ -6252,24 +6910,9 @@
       <c r="Q20" s="5">
         <v>28626.437999999998</v>
       </c>
-      <c r="S20" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="W20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>4.79</v>
-      </c>
-      <c r="X20" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>34600.12</v>
-      </c>
-      <c r="Y20" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>24184.66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="62"/>
+    </row>
+    <row r="21" spans="1:17" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="96"/>
       <c r="B21" s="9">
         <v>0.15</v>
       </c>
@@ -6283,13 +6926,13 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="I21" s="13">
         <v>2.6683238</v>
@@ -6318,24 +6961,9 @@
       <c r="Q21" s="5">
         <v>27361.634999999998</v>
       </c>
-      <c r="S21" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="W21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>7.09</v>
-      </c>
-      <c r="X21" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>23590.26</v>
-      </c>
-      <c r="Y21" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>17444.67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" s="10" customFormat="1" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="63"/>
+    </row>
+    <row r="22" spans="1:17" s="10" customFormat="1" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="97"/>
       <c r="B22" s="34">
         <v>0.2</v>
       </c>
@@ -6349,13 +6977,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="42" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="G22" s="42" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="H22" s="42" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="I22" s="41">
         <v>1.6117309</v>
@@ -6383,21 +7011,6 @@
       </c>
       <c r="Q22" s="42">
         <v>23383.73</v>
-      </c>
-      <c r="S22" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="W22" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>2.94</v>
-      </c>
-      <c r="X22" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>22734.24</v>
-      </c>
-      <c r="Y22" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>18157.11</v>
       </c>
     </row>
   </sheetData>
@@ -6420,6 +7033,1517 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1498E18-EF56-4155-8313-8F31CA8040D7}">
+  <dimension ref="A1:AF22"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z4" sqref="Z4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" style="8" customWidth="1"/>
+    <col min="4" max="8" width="10.44140625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="7.88671875" style="8" customWidth="1"/>
+    <col min="10" max="11" width="10.44140625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="7.88671875" style="8" customWidth="1"/>
+    <col min="13" max="14" width="10.44140625" style="8" customWidth="1"/>
+    <col min="15" max="15" width="7.88671875" style="8" customWidth="1"/>
+    <col min="16" max="17" width="10.44140625" style="8" customWidth="1"/>
+    <col min="23" max="23" width="9.88671875" customWidth="1"/>
+    <col min="24" max="24" width="19.88671875" customWidth="1"/>
+    <col min="31" max="31" width="13.44140625" customWidth="1"/>
+    <col min="32" max="32" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="99" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="93" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1" s="94"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="93" t="s">
+        <v>238</v>
+      </c>
+      <c r="G1" s="94"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="94"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="94"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="93" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="V1" t="str">
+        <f>LEFT(Z3,AA3-3)</f>
+        <v>File: ../data/data_orig_parameters2.csv, Outlier Threshold: nan -&gt; Errors: {'MAPE': 1.24</v>
+      </c>
+      <c r="AB1">
+        <f>LEN(LEFT(Z3,SEARCH("'RMSE':",Z3,1)))</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="102"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="U2" t="s">
+        <v>59</v>
+      </c>
+      <c r="V2" t="s">
+        <v>58</v>
+      </c>
+      <c r="W2" t="s">
+        <v>4</v>
+      </c>
+      <c r="X2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>240</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="96" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="16">
+        <v>0</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>180</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>181</v>
+      </c>
+      <c r="H3" s="58" t="s">
+        <v>182</v>
+      </c>
+      <c r="I3" s="90" t="s">
+        <v>437</v>
+      </c>
+      <c r="J3" s="91" t="s">
+        <v>438</v>
+      </c>
+      <c r="K3" s="92" t="s">
+        <v>439</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="O3" s="57" t="s">
+        <v>313</v>
+      </c>
+      <c r="P3" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q3" s="58" t="s">
+        <v>315</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="T3" s="10">
+        <f>SEARCH("RMSE:",S3,1)</f>
+        <v>98</v>
+      </c>
+      <c r="U3" s="10">
+        <f>SEARCH("MAE:",S3,1)</f>
+        <v>115</v>
+      </c>
+      <c r="V3" s="10">
+        <f>SEARCH("MAPE:",S3,1)</f>
+        <v>86</v>
+      </c>
+      <c r="W3" s="3" t="str">
+        <f>RIGHT(LEFT(S3,SEARCH("RMSE:",S3,1)-3),4)</f>
+        <v>2.70</v>
+      </c>
+      <c r="X3" s="10" t="str">
+        <f>RIGHT(LEFT(S3,SEARCH("MAE:",S3,1)-3),9)</f>
+        <v>252636.48</v>
+      </c>
+      <c r="Y3" s="10" t="str">
+        <f>RIGHT(S3,LEN(S3)-SEARCH("MAE:",S3,1)-4)</f>
+        <v>191407.71</v>
+      </c>
+      <c r="Z3" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="AA3" s="10">
+        <f>SEARCH("'RMSE':",Z3,1)</f>
+        <v>91</v>
+      </c>
+      <c r="AB3" s="10">
+        <f>SEARCH("'MAE':",Z3,1)</f>
+        <v>109</v>
+      </c>
+      <c r="AC3" s="10">
+        <f>SEARCH("'MAPE':",Z3,1)</f>
+        <v>77</v>
+      </c>
+      <c r="AD3" s="10" t="str">
+        <f>RIGHT(LEFT(Z3,AA3-3),AA3-AC3-9)</f>
+        <v xml:space="preserve"> 1.24</v>
+      </c>
+      <c r="AE3" s="3" t="str">
+        <f>RIGHT(LEFT(Z3,AB3-3),LEN(LEFT(Z3,AB3-3))-AA3-7)</f>
+        <v>69688.16</v>
+      </c>
+      <c r="AF3" s="10" t="str">
+        <f>RIGHT(Z3,LEN(Z3)-AB3-6)</f>
+        <v>58357.49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="96"/>
+      <c r="B4" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="E4" s="62" t="s">
+        <v>149</v>
+      </c>
+      <c r="F4" s="61" t="s">
+        <v>183</v>
+      </c>
+      <c r="G4" s="61" t="s">
+        <v>184</v>
+      </c>
+      <c r="H4" s="61" t="s">
+        <v>185</v>
+      </c>
+      <c r="I4" s="60" t="s">
+        <v>325</v>
+      </c>
+      <c r="J4" s="61" t="s">
+        <v>440</v>
+      </c>
+      <c r="K4" s="62" t="s">
+        <v>441</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="O4" s="60" t="s">
+        <v>316</v>
+      </c>
+      <c r="P4" s="61" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q4" s="61" t="s">
+        <v>318</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="W4" s="3" t="str">
+        <f t="shared" ref="W4:W22" si="0">RIGHT(LEFT(S4,SEARCH("RMSE:",S4,1)-3),4)</f>
+        <v>2.77</v>
+      </c>
+      <c r="X4" s="10" t="str">
+        <f t="shared" ref="X4:X22" si="1">RIGHT(LEFT(S4,SEARCH("MAE:",S4,1)-3),9)</f>
+        <v>158884.92</v>
+      </c>
+      <c r="Y4" s="10" t="str">
+        <f t="shared" ref="Y4:Y7" si="2">RIGHT(S4,LEN(S4)-SEARCH("MAE:",S4,1)-4)</f>
+        <v>135034.87</v>
+      </c>
+      <c r="Z4" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="AA4" s="10">
+        <f t="shared" ref="AA4:AA7" si="3">SEARCH("'RMSE':",Z4,1)</f>
+        <v>92</v>
+      </c>
+      <c r="AB4" s="10">
+        <f t="shared" ref="AB4:AB7" si="4">SEARCH("'MAE':",Z4,1)</f>
+        <v>109</v>
+      </c>
+      <c r="AC4" s="10">
+        <f t="shared" ref="AC4:AC7" si="5">SEARCH("'MAPE':",Z4,1)</f>
+        <v>78</v>
+      </c>
+      <c r="AD4" s="10" t="str">
+        <f t="shared" ref="AD4:AD7" si="6">RIGHT(LEFT(Z4,AA4-3),AA4-AC4-9)</f>
+        <v xml:space="preserve"> 1.29</v>
+      </c>
+      <c r="AE4" s="3" t="str">
+        <f t="shared" ref="AE4:AE7" si="7">RIGHT(LEFT(Z4,AB4-3),LEN(LEFT(Z4,AB4-3))-AA4-7)</f>
+        <v>72365.9</v>
+      </c>
+      <c r="AF4" s="10" t="str">
+        <f t="shared" ref="AF4:AF7" si="8">RIGHT(Z4,LEN(Z4)-AB4-6)</f>
+        <v>60839.27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="96"/>
+      <c r="B5" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="61" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="62" t="s">
+        <v>150</v>
+      </c>
+      <c r="F5" s="61" t="s">
+        <v>186</v>
+      </c>
+      <c r="G5" s="61" t="s">
+        <v>187</v>
+      </c>
+      <c r="H5" s="61" t="s">
+        <v>188</v>
+      </c>
+      <c r="I5" s="60" t="s">
+        <v>442</v>
+      </c>
+      <c r="J5" s="61" t="s">
+        <v>443</v>
+      </c>
+      <c r="K5" s="62" t="s">
+        <v>444</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="O5" s="60" t="s">
+        <v>319</v>
+      </c>
+      <c r="P5" s="61" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q5" s="61" t="s">
+        <v>321</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="W5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>3.50</v>
+      </c>
+      <c r="X5" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>153897.33</v>
+      </c>
+      <c r="Y5" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>127971.09</v>
+      </c>
+      <c r="Z5" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="AA5" s="10">
+        <f t="shared" si="3"/>
+        <v>91</v>
+      </c>
+      <c r="AB5" s="10">
+        <f t="shared" si="4"/>
+        <v>109</v>
+      </c>
+      <c r="AC5" s="10">
+        <f t="shared" si="5"/>
+        <v>77</v>
+      </c>
+      <c r="AD5" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 1.35</v>
+      </c>
+      <c r="AE5" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>70132.99</v>
+      </c>
+      <c r="AF5" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>59135.37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="96"/>
+      <c r="B6" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="C6" s="70" t="s">
+        <v>158</v>
+      </c>
+      <c r="D6" s="69" t="s">
+        <v>159</v>
+      </c>
+      <c r="E6" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="F6" s="69" t="s">
+        <v>189</v>
+      </c>
+      <c r="G6" s="69" t="s">
+        <v>190</v>
+      </c>
+      <c r="H6" s="69" t="s">
+        <v>191</v>
+      </c>
+      <c r="I6" s="60" t="s">
+        <v>269</v>
+      </c>
+      <c r="J6" s="61" t="s">
+        <v>445</v>
+      </c>
+      <c r="K6" s="62" t="s">
+        <v>446</v>
+      </c>
+      <c r="L6" s="70" t="s">
+        <v>363</v>
+      </c>
+      <c r="M6" s="69" t="s">
+        <v>364</v>
+      </c>
+      <c r="N6" s="71" t="s">
+        <v>365</v>
+      </c>
+      <c r="O6" s="70" t="s">
+        <v>322</v>
+      </c>
+      <c r="P6" s="69" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q6" s="69" t="s">
+        <v>324</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="W6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2.18</v>
+      </c>
+      <c r="X6" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>110461.72</v>
+      </c>
+      <c r="Y6" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>89326.54</v>
+      </c>
+      <c r="Z6" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="AA6" s="10">
+        <f t="shared" si="3"/>
+        <v>91</v>
+      </c>
+      <c r="AB6" s="10">
+        <f t="shared" si="4"/>
+        <v>109</v>
+      </c>
+      <c r="AC6" s="10">
+        <f t="shared" si="5"/>
+        <v>78</v>
+      </c>
+      <c r="AD6" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 1.7</v>
+      </c>
+      <c r="AE6" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>83592.85</v>
+      </c>
+      <c r="AF6" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>72401.38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" s="10" customFormat="1" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="96"/>
+      <c r="B7" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="C7" s="63" t="s">
+        <v>158</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>159</v>
+      </c>
+      <c r="E7" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="F7" s="64" t="s">
+        <v>180</v>
+      </c>
+      <c r="G7" s="64" t="s">
+        <v>192</v>
+      </c>
+      <c r="H7" s="64" t="s">
+        <v>193</v>
+      </c>
+      <c r="I7" s="63" t="s">
+        <v>447</v>
+      </c>
+      <c r="J7" s="64" t="s">
+        <v>448</v>
+      </c>
+      <c r="K7" s="65" t="s">
+        <v>449</v>
+      </c>
+      <c r="L7" s="63" t="s">
+        <v>257</v>
+      </c>
+      <c r="M7" s="64" t="s">
+        <v>366</v>
+      </c>
+      <c r="N7" s="65" t="s">
+        <v>367</v>
+      </c>
+      <c r="O7" s="63" t="s">
+        <v>325</v>
+      </c>
+      <c r="P7" s="64" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q7" s="64" t="s">
+        <v>327</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="W7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2.70</v>
+      </c>
+      <c r="X7" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>123088.58</v>
+      </c>
+      <c r="Y7" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>100251.18</v>
+      </c>
+      <c r="Z7" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="AA7" s="10">
+        <f t="shared" si="3"/>
+        <v>91</v>
+      </c>
+      <c r="AB7" s="10">
+        <f t="shared" si="4"/>
+        <v>109</v>
+      </c>
+      <c r="AC7" s="10">
+        <f t="shared" si="5"/>
+        <v>77</v>
+      </c>
+      <c r="AD7" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> 1.68</v>
+      </c>
+      <c r="AE7" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>89026.67</v>
+      </c>
+      <c r="AF7" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>76453.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="95" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="30">
+        <v>0</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="G8" s="66" t="s">
+        <v>195</v>
+      </c>
+      <c r="H8" s="66" t="s">
+        <v>196</v>
+      </c>
+      <c r="I8" s="74" t="s">
+        <v>284</v>
+      </c>
+      <c r="J8" s="66" t="s">
+        <v>285</v>
+      </c>
+      <c r="K8" s="75" t="s">
+        <v>286</v>
+      </c>
+      <c r="L8" s="74" t="s">
+        <v>255</v>
+      </c>
+      <c r="M8" s="66" t="s">
+        <v>368</v>
+      </c>
+      <c r="N8" s="75" t="s">
+        <v>369</v>
+      </c>
+      <c r="O8" s="78" t="s">
+        <v>257</v>
+      </c>
+      <c r="P8" s="79" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q8" s="79" t="s">
+        <v>259</v>
+      </c>
+      <c r="S8" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="W8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>6.50</v>
+      </c>
+      <c r="X8" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>370146.59</v>
+      </c>
+      <c r="AE8" s="3"/>
+    </row>
+    <row r="9" spans="1:32" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="96"/>
+      <c r="B9" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="67" t="s">
+        <v>197</v>
+      </c>
+      <c r="G9" s="67" t="s">
+        <v>198</v>
+      </c>
+      <c r="H9" s="67" t="s">
+        <v>199</v>
+      </c>
+      <c r="I9" s="76" t="s">
+        <v>287</v>
+      </c>
+      <c r="J9" s="67" t="s">
+        <v>288</v>
+      </c>
+      <c r="K9" s="77" t="s">
+        <v>289</v>
+      </c>
+      <c r="L9" s="76" t="s">
+        <v>370</v>
+      </c>
+      <c r="M9" s="67" t="s">
+        <v>371</v>
+      </c>
+      <c r="N9" s="77" t="s">
+        <v>372</v>
+      </c>
+      <c r="O9" s="80" t="s">
+        <v>260</v>
+      </c>
+      <c r="P9" s="81" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q9" s="81" t="s">
+        <v>262</v>
+      </c>
+      <c r="S9" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="W9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>6.52</v>
+      </c>
+      <c r="X9" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>336978.12</v>
+      </c>
+      <c r="AE9" s="3"/>
+    </row>
+    <row r="10" spans="1:32" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="96"/>
+      <c r="B10" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="67" t="s">
+        <v>200</v>
+      </c>
+      <c r="G10" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="H10" s="67" t="s">
+        <v>202</v>
+      </c>
+      <c r="I10" s="76" t="s">
+        <v>290</v>
+      </c>
+      <c r="J10" s="67" t="s">
+        <v>291</v>
+      </c>
+      <c r="K10" s="77" t="s">
+        <v>292</v>
+      </c>
+      <c r="L10" s="76" t="s">
+        <v>373</v>
+      </c>
+      <c r="M10" s="67" t="s">
+        <v>374</v>
+      </c>
+      <c r="N10" s="77" t="s">
+        <v>375</v>
+      </c>
+      <c r="O10" s="80" t="s">
+        <v>263</v>
+      </c>
+      <c r="P10" s="81" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q10" s="81" t="s">
+        <v>265</v>
+      </c>
+      <c r="S10" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="W10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>7.01</v>
+      </c>
+      <c r="X10" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>351759.15</v>
+      </c>
+      <c r="AE10" s="3"/>
+    </row>
+    <row r="11" spans="1:32" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="96"/>
+      <c r="B11" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="67" t="s">
+        <v>203</v>
+      </c>
+      <c r="G11" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="H11" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="I11" s="76" t="s">
+        <v>293</v>
+      </c>
+      <c r="J11" s="67" t="s">
+        <v>294</v>
+      </c>
+      <c r="K11" s="77" t="s">
+        <v>295</v>
+      </c>
+      <c r="L11" s="84" t="s">
+        <v>376</v>
+      </c>
+      <c r="M11" s="72" t="s">
+        <v>377</v>
+      </c>
+      <c r="N11" s="89" t="s">
+        <v>378</v>
+      </c>
+      <c r="O11" s="84" t="s">
+        <v>266</v>
+      </c>
+      <c r="P11" s="72" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q11" s="72" t="s">
+        <v>268</v>
+      </c>
+      <c r="S11" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="W11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>4.03</v>
+      </c>
+      <c r="X11" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>194574.17</v>
+      </c>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" s="10" customFormat="1" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="97"/>
+      <c r="B12" s="34">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="G12" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="H12" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="I12" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="J12" s="42" t="s">
+        <v>296</v>
+      </c>
+      <c r="K12" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="L12" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="M12" s="36" t="s">
+        <v>379</v>
+      </c>
+      <c r="N12" s="37" t="s">
+        <v>380</v>
+      </c>
+      <c r="O12" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="P12" s="83" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q12" s="83" t="s">
+        <v>271</v>
+      </c>
+      <c r="S12" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="W12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2.47</v>
+      </c>
+      <c r="X12" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>118945.74</v>
+      </c>
+      <c r="AE12" s="3"/>
+    </row>
+    <row r="13" spans="1:32" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="96" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="16">
+        <v>0</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="G13" s="68" t="s">
+        <v>210</v>
+      </c>
+      <c r="H13" s="68" t="s">
+        <v>211</v>
+      </c>
+      <c r="I13" s="85" t="s">
+        <v>298</v>
+      </c>
+      <c r="J13" s="68" t="s">
+        <v>299</v>
+      </c>
+      <c r="K13" s="88" t="s">
+        <v>300</v>
+      </c>
+      <c r="L13" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="M13" s="28" t="s">
+        <v>382</v>
+      </c>
+      <c r="N13" s="29" t="s">
+        <v>383</v>
+      </c>
+      <c r="O13" s="85" t="s">
+        <v>328</v>
+      </c>
+      <c r="P13" s="68" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q13" s="68" t="s">
+        <v>330</v>
+      </c>
+      <c r="S13" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="W13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1.53</v>
+      </c>
+      <c r="X13" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>155702.93</v>
+      </c>
+      <c r="AE13" s="3"/>
+    </row>
+    <row r="14" spans="1:32" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="96"/>
+      <c r="B14" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="72" t="s">
+        <v>212</v>
+      </c>
+      <c r="G14" s="72" t="s">
+        <v>213</v>
+      </c>
+      <c r="H14" s="72" t="s">
+        <v>214</v>
+      </c>
+      <c r="I14" s="84" t="s">
+        <v>301</v>
+      </c>
+      <c r="J14" s="72" t="s">
+        <v>302</v>
+      </c>
+      <c r="K14" s="89" t="s">
+        <v>303</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="O14" s="76" t="s">
+        <v>331</v>
+      </c>
+      <c r="P14" s="67" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q14" s="67" t="s">
+        <v>333</v>
+      </c>
+      <c r="S14" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="W14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1.46</v>
+      </c>
+      <c r="X14" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 80573.92</v>
+      </c>
+      <c r="AE14" s="3"/>
+    </row>
+    <row r="15" spans="1:32" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="96"/>
+      <c r="B15" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="67" t="s">
+        <v>215</v>
+      </c>
+      <c r="G15" s="67" t="s">
+        <v>216</v>
+      </c>
+      <c r="H15" s="67" t="s">
+        <v>217</v>
+      </c>
+      <c r="I15" s="76" t="s">
+        <v>304</v>
+      </c>
+      <c r="J15" s="67" t="s">
+        <v>305</v>
+      </c>
+      <c r="K15" s="77" t="s">
+        <v>306</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="N15" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="O15" s="76" t="s">
+        <v>256</v>
+      </c>
+      <c r="P15" s="67" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q15" s="67" t="s">
+        <v>335</v>
+      </c>
+      <c r="S15" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="W15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1.50</v>
+      </c>
+      <c r="X15" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 75943.02</v>
+      </c>
+      <c r="AE15" s="3"/>
+    </row>
+    <row r="16" spans="1:32" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="96"/>
+      <c r="B16" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="G16" s="67" t="s">
+        <v>219</v>
+      </c>
+      <c r="H16" s="67" t="s">
+        <v>220</v>
+      </c>
+      <c r="I16" s="76" t="s">
+        <v>307</v>
+      </c>
+      <c r="J16" s="67" t="s">
+        <v>308</v>
+      </c>
+      <c r="K16" s="77" t="s">
+        <v>309</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="O16" s="84" t="s">
+        <v>336</v>
+      </c>
+      <c r="P16" s="72" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q16" s="72" t="s">
+        <v>338</v>
+      </c>
+      <c r="S16" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="W16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2.39</v>
+      </c>
+      <c r="X16" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>112468.70</v>
+      </c>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="1:31" s="10" customFormat="1" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="96"/>
+      <c r="B17" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="C17" s="38"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="H17" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="I17" s="38" t="s">
+        <v>310</v>
+      </c>
+      <c r="J17" s="39" t="s">
+        <v>311</v>
+      </c>
+      <c r="K17" s="40" t="s">
+        <v>312</v>
+      </c>
+      <c r="L17" s="44" t="s">
+        <v>393</v>
+      </c>
+      <c r="M17" s="45" t="s">
+        <v>394</v>
+      </c>
+      <c r="N17" s="46" t="s">
+        <v>395</v>
+      </c>
+      <c r="O17" s="38" t="s">
+        <v>339</v>
+      </c>
+      <c r="P17" s="39" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q17" s="39" t="s">
+        <v>341</v>
+      </c>
+      <c r="S17" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="W17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2.84</v>
+      </c>
+      <c r="X17" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>130505.62</v>
+      </c>
+      <c r="AE17" s="3"/>
+    </row>
+    <row r="18" spans="1:31" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="95" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="30">
+        <v>0</v>
+      </c>
+      <c r="C18" s="31"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="66" t="s">
+        <v>224</v>
+      </c>
+      <c r="G18" s="66" t="s">
+        <v>225</v>
+      </c>
+      <c r="H18" s="66" t="s">
+        <v>226</v>
+      </c>
+      <c r="I18" s="74" t="s">
+        <v>400</v>
+      </c>
+      <c r="J18" s="66" t="s">
+        <v>401</v>
+      </c>
+      <c r="K18" s="75" t="s">
+        <v>402</v>
+      </c>
+      <c r="L18" s="31" t="s">
+        <v>417</v>
+      </c>
+      <c r="M18" s="32" t="s">
+        <v>418</v>
+      </c>
+      <c r="N18" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="O18" s="86" t="s">
+        <v>322</v>
+      </c>
+      <c r="P18" s="87" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q18" s="87" t="s">
+        <v>343</v>
+      </c>
+      <c r="S18" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="W18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1.60</v>
+      </c>
+      <c r="X18" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>208268.23</v>
+      </c>
+      <c r="AE18" s="3"/>
+    </row>
+    <row r="19" spans="1:31" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="96"/>
+      <c r="B19" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="72" t="s">
+        <v>227</v>
+      </c>
+      <c r="G19" s="72" t="s">
+        <v>228</v>
+      </c>
+      <c r="H19" s="72" t="s">
+        <v>229</v>
+      </c>
+      <c r="I19" s="84" t="s">
+        <v>403</v>
+      </c>
+      <c r="J19" s="72" t="s">
+        <v>404</v>
+      </c>
+      <c r="K19" s="89" t="s">
+        <v>405</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="N19" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="O19" s="76" t="s">
+        <v>328</v>
+      </c>
+      <c r="P19" s="67" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q19" s="67" t="s">
+        <v>345</v>
+      </c>
+      <c r="S19" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="W19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1.51</v>
+      </c>
+      <c r="X19" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>117163.78</v>
+      </c>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="1:31" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="96"/>
+      <c r="B20" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="67" t="s">
+        <v>230</v>
+      </c>
+      <c r="G20" s="67" t="s">
+        <v>231</v>
+      </c>
+      <c r="H20" s="67" t="s">
+        <v>232</v>
+      </c>
+      <c r="I20" s="76" t="s">
+        <v>406</v>
+      </c>
+      <c r="J20" s="67" t="s">
+        <v>407</v>
+      </c>
+      <c r="K20" s="77" t="s">
+        <v>408</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="N20" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="O20" s="76" t="s">
+        <v>346</v>
+      </c>
+      <c r="P20" s="67" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q20" s="67" t="s">
+        <v>348</v>
+      </c>
+      <c r="S20" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="W20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1.99</v>
+      </c>
+      <c r="X20" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>109333.74</v>
+      </c>
+      <c r="AE20" s="3"/>
+    </row>
+    <row r="21" spans="1:31" s="10" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="96"/>
+      <c r="B21" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="67" t="s">
+        <v>233</v>
+      </c>
+      <c r="G21" s="67" t="s">
+        <v>234</v>
+      </c>
+      <c r="H21" s="67" t="s">
+        <v>235</v>
+      </c>
+      <c r="I21" s="76" t="s">
+        <v>409</v>
+      </c>
+      <c r="J21" s="67" t="s">
+        <v>410</v>
+      </c>
+      <c r="K21" s="77" t="s">
+        <v>411</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="N21" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="O21" s="76" t="s">
+        <v>349</v>
+      </c>
+      <c r="P21" s="67" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q21" s="67" t="s">
+        <v>351</v>
+      </c>
+      <c r="S21" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="W21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>3.12</v>
+      </c>
+      <c r="X21" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>153616.30</v>
+      </c>
+      <c r="AE21" s="3"/>
+    </row>
+    <row r="22" spans="1:31" s="10" customFormat="1" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="97"/>
+      <c r="B22" s="34">
+        <v>0.2</v>
+      </c>
+      <c r="C22" s="35"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="G22" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="H22" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="I22" s="35" t="s">
+        <v>412</v>
+      </c>
+      <c r="J22" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="K22" s="37" t="s">
+        <v>414</v>
+      </c>
+      <c r="L22" s="41" t="s">
+        <v>428</v>
+      </c>
+      <c r="M22" s="42" t="s">
+        <v>429</v>
+      </c>
+      <c r="N22" s="43" t="s">
+        <v>430</v>
+      </c>
+      <c r="O22" s="35" t="s">
+        <v>352</v>
+      </c>
+      <c r="P22" s="36" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q22" s="36" t="s">
+        <v>354</v>
+      </c>
+      <c r="S22" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="W22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1.99</v>
+      </c>
+      <c r="X22" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 94312.02</v>
+      </c>
+      <c r="AE22" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E732A185-65E9-4E1A-BA39-C35C043C3DED}">
   <dimension ref="A1:P15"/>
   <sheetViews>
@@ -6444,31 +8568,31 @@
       <c r="A1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="59" t="s">
+      <c r="C1" s="94"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="60"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="59" t="s">
+      <c r="F1" s="94"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="60"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="59" t="s">
+      <c r="I1" s="94"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="60"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="59" t="s">
+      <c r="L1" s="94"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
@@ -6765,12 +8889,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF44FCAF-9F43-4464-A31C-4C28C63EE283}">
-  <dimension ref="A1:A108"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508056B0-5FA0-4A86-A010-CEC859BF36A8}">
+  <dimension ref="A1:A58"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="I86" sqref="I86"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6800,334 +8924,164 @@
         <v>19</v>
       </c>
     </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>158</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>165</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>164</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>166</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>168</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>14</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>32</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>148</v>
+      <c r="A53" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+      <c r="A56" s="73" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -7136,12 +9090,546 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF44FCAF-9F43-4464-A31C-4C28C63EE283}">
+  <dimension ref="A1:A150"/>
+  <sheetViews>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" s="73" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" s="2"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>273</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB10CFE-D1C3-49A1-A4A2-FF389B0C0A76}">
-  <dimension ref="B3:K30"/>
+  <dimension ref="B3:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:C29"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7152,308 +9640,119 @@
     <col min="5" max="5" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="50">
+    <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="48"/>
+      <c r="K3" s="48"/>
+    </row>
+    <row r="4" spans="2:11" s="49" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="103" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="104"/>
+      <c r="K4" s="50"/>
+    </row>
+    <row r="5" spans="2:11" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="55">
         <v>45292</v>
       </c>
-      <c r="C4" s="49">
-        <v>-2398.9390990000002</v>
-      </c>
-      <c r="D4" s="49">
-        <v>-22000.883786999999</v>
-      </c>
-      <c r="E4" s="49">
-        <v>17203.005588</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="50">
+      <c r="C5" s="56">
+        <v>-8169.7267620000002</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="51">
         <v>45323</v>
       </c>
-      <c r="C5" s="49">
-        <v>1719.9713409999999</v>
-      </c>
-      <c r="D5" s="49">
-        <v>-17881.973346999999</v>
-      </c>
-      <c r="E5" s="49">
-        <v>21321.916028</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="50">
+      <c r="C6" s="52">
+        <v>-4377.5449170000002</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="51">
         <v>45352</v>
       </c>
-      <c r="C6" s="49">
-        <v>-24684.658734000001</v>
-      </c>
-      <c r="D6" s="49">
-        <v>-44286.603421</v>
-      </c>
-      <c r="E6" s="49">
-        <v>-5082.7140460000001</v>
-      </c>
-      <c r="K6" s="48"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="50">
+      <c r="C7" s="52">
+        <v>-30349.185131999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="51">
         <v>45383</v>
       </c>
-      <c r="C7" s="49">
-        <v>-5617.6403300000002</v>
-      </c>
-      <c r="D7" s="49">
-        <v>-25219.585018000002</v>
-      </c>
-      <c r="E7" s="49">
-        <v>13984.304357000001</v>
-      </c>
-      <c r="K7" s="48"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="50">
+      <c r="C8" s="52">
+        <v>-39390.183650999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="51">
         <v>45413</v>
       </c>
-      <c r="C8" s="49">
-        <v>4607.3902840000001</v>
-      </c>
-      <c r="D8" s="49">
-        <v>-14994.554403</v>
-      </c>
-      <c r="E8" s="49">
-        <v>24209.334972000001</v>
-      </c>
-      <c r="K8" s="48"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="50">
+      <c r="C9" s="52">
+        <v>-36015.293297999997</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="51">
         <v>45444</v>
       </c>
-      <c r="C9" s="49">
-        <v>-14711.277532</v>
-      </c>
-      <c r="D9" s="49">
-        <v>-34313.222219000003</v>
-      </c>
-      <c r="E9" s="49">
-        <v>4890.6671560000004</v>
-      </c>
-      <c r="K9" s="48"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="50">
+      <c r="C10" s="52">
+        <v>-54750.020230000002</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="51">
         <v>45474</v>
       </c>
-      <c r="C10" s="49">
-        <v>-2135.5036909999999</v>
-      </c>
-      <c r="D10" s="49">
-        <v>-21737.448378000001</v>
-      </c>
-      <c r="E10" s="49">
-        <v>17466.440997000002</v>
-      </c>
-      <c r="K10" s="48"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="50">
+      <c r="C11" s="52">
+        <v>-60476.677978</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="51">
         <v>45505</v>
       </c>
-      <c r="C11" s="49">
-        <v>-4308.7420469999997</v>
-      </c>
-      <c r="D11" s="49">
-        <v>-23910.686734999999</v>
-      </c>
-      <c r="E11" s="49">
-        <v>15293.20264</v>
-      </c>
-      <c r="K11" s="48"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="50">
+      <c r="C12" s="52">
+        <v>-66560.644039000006</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="51">
         <v>45536</v>
       </c>
-      <c r="C12" s="49">
-        <v>-9423.3251720000007</v>
-      </c>
-      <c r="D12" s="49">
-        <v>-29025.269859</v>
-      </c>
-      <c r="E12" s="49">
-        <v>10178.619516000001</v>
-      </c>
-      <c r="K12" s="48"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="50">
+      <c r="C13" s="52">
+        <v>-79255.195244999995</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="51">
         <v>45566</v>
       </c>
-      <c r="C13" s="49">
-        <v>-2288.8922689999999</v>
-      </c>
-      <c r="D13" s="49">
-        <v>-21890.836955999999</v>
-      </c>
-      <c r="E13" s="49">
-        <v>17313.052419</v>
-      </c>
-      <c r="K13" s="48"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="50">
+      <c r="C14" s="52">
+        <v>-85107.021859999993</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="51">
         <v>45597</v>
       </c>
-      <c r="C14" s="49">
-        <v>7248.9427729999998</v>
-      </c>
-      <c r="D14" s="49">
-        <v>-12353.001915000001</v>
-      </c>
-      <c r="E14" s="49">
-        <v>26850.887460000002</v>
-      </c>
-      <c r="K14" s="48"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="50">
+      <c r="C15" s="52">
+        <v>-80341.965014000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="53">
         <v>45627</v>
       </c>
-      <c r="C15" s="49">
-        <v>-7322.4207070000002</v>
-      </c>
-      <c r="D15" s="49">
-        <v>-26924.365395000001</v>
-      </c>
-      <c r="E15" s="49">
-        <v>12279.52398</v>
-      </c>
-      <c r="K15" s="48"/>
-    </row>
-    <row r="16" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="48"/>
-      <c r="K16" s="48"/>
-    </row>
-    <row r="17" spans="2:11" s="51" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="69" t="s">
-        <v>170</v>
-      </c>
-      <c r="C17" s="70"/>
-      <c r="K17" s="52"/>
-    </row>
-    <row r="18" spans="2:11" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="57">
-        <v>45292</v>
-      </c>
-      <c r="C18" s="58">
-        <v>-8169.7267620000002</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="53">
-        <v>45323</v>
-      </c>
-      <c r="C19" s="54">
-        <v>-4377.5449170000002</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="53">
-        <v>45352</v>
-      </c>
-      <c r="C20" s="54">
-        <v>-30349.185131999999</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="53">
-        <v>45383</v>
-      </c>
-      <c r="C21" s="54">
-        <v>-39390.183650999999</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="53">
-        <v>45413</v>
-      </c>
-      <c r="C22" s="54">
-        <v>-36015.293297999997</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="53">
-        <v>45444</v>
-      </c>
-      <c r="C23" s="54">
-        <v>-54750.020230000002</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="53">
-        <v>45474</v>
-      </c>
-      <c r="C24" s="54">
-        <v>-60476.677978</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="53">
-        <v>45505</v>
-      </c>
-      <c r="C25" s="54">
-        <v>-66560.644039000006</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="53">
-        <v>45536</v>
-      </c>
-      <c r="C26" s="54">
-        <v>-79255.195244999995</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="53">
-        <v>45566</v>
-      </c>
-      <c r="C27" s="54">
-        <v>-85107.021859999993</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="53">
-        <v>45597</v>
-      </c>
-      <c r="C28" s="54">
-        <v>-80341.965014000001</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="55">
-        <v>45627</v>
-      </c>
-      <c r="C29" s="56">
+      <c r="C16" s="54">
         <v>-91718.278296000004</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="48"/>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
